--- a/Leasing/Mapeos_REC_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_REC_Leasing_V1.xlsx
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="262">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1835,6 +1835,54 @@
   </si>
   <si>
     <t>Validaciones Generales AVIONES /6. Búsqueda Moneda</t>
+  </si>
+  <si>
+    <t>NUMBER(22)</t>
+  </si>
+  <si>
+    <t>DATE(7)</t>
+  </si>
+  <si>
+    <t>NUMBER(15,2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(250)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2897,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2936,8 +2984,6 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3003,6 +3049,61 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="69" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="69" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="69" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="69" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="69" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3060,61 +3161,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="69" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="69" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="69" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="69" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3593,7 +3639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3604,8 +3650,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="K64" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3642,28 +3688,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -3674,13 +3720,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -3691,11 +3737,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3707,29 +3753,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3784,42 +3830,44 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="68">
-        <v>20</v>
-      </c>
-      <c r="J9" s="76" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
+        <v>20</v>
+      </c>
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
-        <v>20</v>
-      </c>
-      <c r="N9" s="86" t="s">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
+        <v>20</v>
+      </c>
+      <c r="N9" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="139" t="s">
+      <c r="R9" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3827,17 +3875,19 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="59">
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>21</v>
       </c>
       <c r="J10" s="30" t="s">
@@ -3846,20 +3896,20 @@
       <c r="K10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>21</v>
       </c>
-      <c r="N10" s="79" t="s">
+      <c r="N10" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="79" t="s">
+      <c r="O10" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="79" t="s">
+      <c r="Q10" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R10" s="35"/>
@@ -3868,15 +3918,17 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="59">
+      <c r="G11" s="61"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>22</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -3885,20 +3937,20 @@
       <c r="K11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>22</v>
       </c>
-      <c r="N11" s="79" t="s">
+      <c r="N11" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="79" t="s">
+      <c r="O11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="79" t="s">
+      <c r="P11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -3907,37 +3959,39 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="59">
+      <c r="G12" s="61"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>23</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="57">
+      <c r="L12" s="64"/>
+      <c r="M12" s="55">
         <v>23</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="79" t="s">
+      <c r="P12" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -3946,15 +4000,17 @@
       <c r="B13" s="43">
         <v>5</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="59">
+      <c r="G13" s="62"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>24</v>
       </c>
       <c r="J13" s="30" t="s">
@@ -3963,20 +4019,20 @@
       <c r="K13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="57">
+      <c r="L13" s="59"/>
+      <c r="M13" s="55">
         <v>1</v>
       </c>
-      <c r="N13" s="79" t="s">
+      <c r="N13" s="77" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="P13" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="79" t="s">
+      <c r="Q13" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -3985,15 +4041,17 @@
       <c r="B14" s="43">
         <v>6</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>249</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="59">
+      <c r="G14" s="62"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>25</v>
       </c>
       <c r="J14" s="30" t="s">
@@ -4002,20 +4060,20 @@
       <c r="K14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57">
+      <c r="L14" s="59"/>
+      <c r="M14" s="55">
         <v>25</v>
       </c>
-      <c r="N14" s="79" t="s">
+      <c r="N14" s="77" t="s">
         <v>73</v>
       </c>
       <c r="O14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="79" t="s">
+      <c r="P14" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="79" t="s">
+      <c r="Q14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -4024,15 +4082,17 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59">
+      <c r="G15" s="62"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>26</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -4041,59 +4101,61 @@
       <c r="K15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="87">
+      <c r="L15" s="59"/>
+      <c r="M15" s="85">
         <v>26</v>
       </c>
-      <c r="N15" s="85" t="s">
+      <c r="N15" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="84" t="s">
+      <c r="O15" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="85" t="s">
+      <c r="P15" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="88"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59">
+      <c r="G16" s="62"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>27</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="57">
+      <c r="L16" s="59"/>
+      <c r="M16" s="55">
         <v>25</v>
       </c>
-      <c r="N16" s="79" t="s">
+      <c r="N16" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="79" t="s">
+      <c r="O16" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="79" t="s">
+      <c r="P16" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -4102,37 +4164,39 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="59">
+      <c r="G17" s="62"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="57">
         <v>28</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="141" t="s">
+      <c r="K17" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="57">
+      <c r="L17" s="59"/>
+      <c r="M17" s="55">
         <v>27</v>
       </c>
-      <c r="N17" s="79" t="s">
+      <c r="N17" s="77" t="s">
         <v>73</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="79" t="s">
+      <c r="P17" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -4141,37 +4205,39 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="59">
+      <c r="G18" s="62"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57">
         <v>29</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="141" t="s">
+      <c r="K18" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="57">
-        <v>24</v>
-      </c>
-      <c r="N18" s="79" t="s">
+      <c r="L18" s="59"/>
+      <c r="M18" s="55">
+        <v>24</v>
+      </c>
+      <c r="N18" s="77" t="s">
         <v>73</v>
       </c>
       <c r="O18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="79" t="s">
+      <c r="Q18" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R18" s="35"/>
@@ -4180,37 +4246,39 @@
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="77" t="s">
+        <v>250</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="59">
+      <c r="G19" s="62"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="57">
         <v>30</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="141" t="s">
+      <c r="K19" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="57">
+      <c r="L19" s="59"/>
+      <c r="M19" s="55">
         <v>25</v>
       </c>
-      <c r="N19" s="79" t="s">
+      <c r="N19" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="35"/>
@@ -4219,37 +4287,39 @@
       <c r="B20" s="43">
         <v>12</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="77" t="s">
+        <v>250</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="59">
+      <c r="G20" s="62"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="57">
         <v>31</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="141" t="s">
+      <c r="K20" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="57">
-        <v>24</v>
-      </c>
-      <c r="N20" s="79" t="s">
+      <c r="L20" s="59"/>
+      <c r="M20" s="55">
+        <v>24</v>
+      </c>
+      <c r="N20" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="79" t="s">
+      <c r="P20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="35"/>
@@ -4258,37 +4328,39 @@
       <c r="B21" s="43">
         <v>13</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="77" t="s">
+        <v>250</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="59">
+      <c r="G21" s="62"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="57">
         <v>32</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="141" t="s">
+      <c r="K21" s="120" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="58">
+      <c r="L21" s="59"/>
+      <c r="M21" s="56">
         <v>25</v>
       </c>
-      <c r="N21" s="79" t="s">
+      <c r="N21" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="79" t="s">
+      <c r="P21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="35"/>
@@ -4297,37 +4369,39 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="77" t="s">
+        <v>251</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="59">
+      <c r="G22" s="62"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="57">
         <v>33</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="141" t="s">
+      <c r="K22" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="L22" s="61"/>
-      <c r="M22" s="58">
-        <v>24</v>
-      </c>
-      <c r="N22" s="79" t="s">
+      <c r="L22" s="59"/>
+      <c r="M22" s="56">
+        <v>24</v>
+      </c>
+      <c r="N22" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="79" t="s">
+      <c r="O22" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="79" t="s">
+      <c r="P22" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="79" t="s">
+      <c r="Q22" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="35"/>
@@ -4336,37 +4410,39 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="60">
+      <c r="G23" s="62"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="58">
         <v>34</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="155" t="s">
+      <c r="K23" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="58">
+      <c r="L23" s="59"/>
+      <c r="M23" s="56">
         <v>25</v>
       </c>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="79" t="s">
+      <c r="O23" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="79" t="s">
+      <c r="P23" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="35"/>
@@ -4375,28 +4451,30 @@
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="64"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="38"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="58">
-        <v>24</v>
-      </c>
-      <c r="N24" s="79" t="s">
+      <c r="M24" s="56">
+        <v>24</v>
+      </c>
+      <c r="N24" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="79" t="s">
+      <c r="P24" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="79" t="s">
+      <c r="Q24" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="35"/>
@@ -4405,28 +4483,30 @@
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="64"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="38"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="58">
-        <v>24</v>
-      </c>
-      <c r="N25" s="79" t="s">
+      <c r="M25" s="56">
+        <v>24</v>
+      </c>
+      <c r="N25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="79" t="s">
+      <c r="P25" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="79" t="s">
+      <c r="Q25" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="35"/>
@@ -4435,834 +4515,838 @@
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="64"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="58">
+      <c r="M26" s="56">
         <v>24</v>
       </c>
       <c r="N26" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="79" t="s">
+      <c r="Q26" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="35"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="80">
+      <c r="B27" s="78">
         <v>19</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="77" t="s">
+        <v>252</v>
+      </c>
       <c r="E27" s="42"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="65"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="39"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="58">
-        <v>24</v>
-      </c>
-      <c r="N27" s="79" t="s">
+      <c r="M27" s="56">
+        <v>24</v>
+      </c>
+      <c r="N27" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="P27" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="79" t="s">
+      <c r="P27" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L28" s="38"/>
-      <c r="M28" s="58">
-        <v>24</v>
-      </c>
-      <c r="N28" s="79" t="s">
+      <c r="M28" s="56">
+        <v>24</v>
+      </c>
+      <c r="N28" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O28" s="79" t="s">
+      <c r="O28" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="P28" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="79" t="s">
+      <c r="P28" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="38"/>
-      <c r="M29" s="58">
-        <v>24</v>
-      </c>
-      <c r="N29" s="79" t="s">
+      <c r="M29" s="56">
+        <v>24</v>
+      </c>
+      <c r="N29" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="79" t="s">
+      <c r="O29" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="79" t="s">
+      <c r="P29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R29" s="35"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="38"/>
-      <c r="M30" s="58">
-        <v>24</v>
-      </c>
-      <c r="N30" s="79" t="s">
+      <c r="M30" s="56">
+        <v>24</v>
+      </c>
+      <c r="N30" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="79" t="s">
+      <c r="P30" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R30" s="35"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="38"/>
-      <c r="M31" s="87">
+      <c r="M31" s="85">
         <v>26</v>
       </c>
-      <c r="N31" s="85" t="s">
+      <c r="N31" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="85" t="s">
+      <c r="O31" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="85" t="s">
+      <c r="P31" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="88"/>
+      <c r="Q31" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="86"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="38"/>
-      <c r="M32" s="89">
+      <c r="M32" s="87">
         <v>26</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="85" t="s">
+      <c r="O32" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="85" t="s">
+      <c r="P32" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="Q32" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="88"/>
+      <c r="Q32" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="86"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
-      <c r="M33" s="58">
+      <c r="M33" s="56">
         <v>4</v>
       </c>
-      <c r="N33" s="79" t="s">
+      <c r="N33" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P33" s="79" t="s">
+      <c r="P33" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="79" t="s">
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="35"/>
     </row>
     <row r="34" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L34" s="39"/>
-      <c r="M34" s="120">
+      <c r="M34" s="99">
         <v>15</v>
       </c>
-      <c r="N34" s="121" t="s">
+      <c r="N34" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="O34" s="122" t="s">
+      <c r="O34" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="121" t="s">
+      <c r="P34" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="92"/>
+      <c r="Q34" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L35" s="69"/>
-      <c r="M35" s="68">
+      <c r="L35" s="67"/>
+      <c r="M35" s="66">
         <v>20</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="O35" s="86" t="s">
+      <c r="O35" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="86" t="s">
+      <c r="P35" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="86" t="s">
+      <c r="Q35" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="140" t="s">
+      <c r="R35" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="38"/>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>28</v>
       </c>
       <c r="N36" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P36" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="79" t="s">
+      <c r="P36" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="141" t="s">
+      <c r="R36" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="38"/>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>7</v>
       </c>
       <c r="N37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="38"/>
-      <c r="M38" s="59">
+      <c r="M38" s="57">
         <v>25</v>
       </c>
       <c r="N38" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P38" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="79" t="s">
+      <c r="P38" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="38"/>
-      <c r="M39" s="59">
+      <c r="M39" s="57">
         <v>29</v>
       </c>
       <c r="N39" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O39" s="79" t="s">
+      <c r="O39" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P39" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="79" t="s">
+      <c r="P39" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R39" s="33"/>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="38"/>
-      <c r="M40" s="59">
+      <c r="M40" s="57">
         <v>25</v>
       </c>
       <c r="N40" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O40" s="79" t="s">
+      <c r="O40" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P40" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="79" t="s">
+      <c r="P40" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R40" s="33"/>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="38"/>
-      <c r="M41" s="59">
+      <c r="M41" s="57">
         <v>25</v>
       </c>
       <c r="N41" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O41" s="79" t="s">
+      <c r="O41" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="79" t="s">
+      <c r="P41" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="79" t="s">
+      <c r="Q41" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R41" s="33"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="38"/>
-      <c r="M42" s="59">
+      <c r="M42" s="57">
         <v>25</v>
       </c>
       <c r="N42" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O42" s="79" t="s">
+      <c r="O42" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P42" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="79" t="s">
+      <c r="P42" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="38"/>
-      <c r="M43" s="59">
+      <c r="M43" s="57">
         <v>24</v>
       </c>
       <c r="N43" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="79" t="s">
+      <c r="O43" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P43" s="79" t="s">
+      <c r="P43" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="79" t="s">
+      <c r="Q43" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="38"/>
-      <c r="M44" s="59">
+      <c r="M44" s="57">
         <v>8</v>
       </c>
       <c r="N44" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O44" s="79" t="s">
+      <c r="O44" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P44" s="79" t="s">
+      <c r="P44" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q44" s="79" t="s">
+      <c r="Q44" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
     </row>
     <row r="45" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L45" s="39"/>
-      <c r="M45" s="127">
-        <v>24</v>
-      </c>
-      <c r="N45" s="128" t="s">
+      <c r="M45" s="106">
+        <v>24</v>
+      </c>
+      <c r="N45" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="O45" s="129" t="s">
+      <c r="O45" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="129" t="s">
+      <c r="P45" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="130"/>
+      <c r="Q45" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="109"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L46" s="69"/>
-      <c r="M46" s="68">
+      <c r="L46" s="67"/>
+      <c r="M46" s="66">
         <v>20</v>
       </c>
       <c r="N46" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="O46" s="86" t="s">
+      <c r="O46" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P46" s="86" t="s">
+      <c r="P46" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="86" t="s">
+      <c r="Q46" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R46" s="140" t="s">
+      <c r="R46" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="38"/>
-      <c r="M47" s="59">
+      <c r="M47" s="57">
         <v>30</v>
       </c>
       <c r="N47" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O47" s="79" t="s">
+      <c r="O47" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P47" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="79" t="s">
+      <c r="P47" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R47" s="141" t="s">
+      <c r="R47" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="38"/>
-      <c r="M48" s="59">
+      <c r="M48" s="57">
         <v>7</v>
       </c>
       <c r="N48" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O48" s="79" t="s">
+      <c r="O48" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="79" t="s">
+      <c r="P48" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="79" t="s">
+      <c r="Q48" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="33"/>
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="38"/>
-      <c r="M49" s="59">
+      <c r="M49" s="57">
         <v>25</v>
       </c>
       <c r="N49" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O49" s="79" t="s">
+      <c r="O49" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P49" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="79" t="s">
+      <c r="P49" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R49" s="33"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="38"/>
-      <c r="M50" s="59">
+      <c r="M50" s="57">
         <v>29</v>
       </c>
       <c r="N50" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O50" s="79" t="s">
+      <c r="O50" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P50" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="79" t="s">
+      <c r="P50" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R50" s="33"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="38"/>
-      <c r="M51" s="59">
+      <c r="M51" s="57">
         <v>25</v>
       </c>
       <c r="N51" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O51" s="79" t="s">
+      <c r="O51" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="79" t="s">
+      <c r="P51" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="33"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="38"/>
-      <c r="M52" s="59">
+      <c r="M52" s="57">
         <v>25</v>
       </c>
       <c r="N52" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O52" s="79" t="s">
+      <c r="O52" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P52" s="79" t="s">
+      <c r="P52" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="79" t="s">
+      <c r="Q52" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="33"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="38"/>
-      <c r="M53" s="59">
+      <c r="M53" s="57">
         <v>25</v>
       </c>
       <c r="N53" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O53" s="79" t="s">
+      <c r="O53" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P53" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" s="79" t="s">
+      <c r="P53" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R53" s="33"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="38"/>
-      <c r="M54" s="59">
+      <c r="M54" s="57">
         <v>24</v>
       </c>
       <c r="N54" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O54" s="79" t="s">
+      <c r="O54" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P54" s="79" t="s">
+      <c r="P54" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="79" t="s">
+      <c r="Q54" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R54" s="33"/>
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="38"/>
-      <c r="M55" s="59">
+      <c r="M55" s="57">
         <v>5</v>
       </c>
       <c r="N55" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O55" s="79" t="s">
+      <c r="O55" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P55" s="79" t="s">
+      <c r="P55" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q55" s="79" t="s">
+      <c r="Q55" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R55" s="33"/>
     </row>
     <row r="56" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L56" s="39"/>
-      <c r="M56" s="127">
-        <v>24</v>
-      </c>
-      <c r="N56" s="128" t="s">
+      <c r="M56" s="106">
+        <v>24</v>
+      </c>
+      <c r="N56" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="O56" s="129" t="s">
+      <c r="O56" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="129" t="s">
+      <c r="P56" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q56" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="134"/>
+      <c r="Q56" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="113"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="69"/>
-      <c r="M57" s="68">
+      <c r="L57" s="67"/>
+      <c r="M57" s="66">
         <v>31</v>
       </c>
       <c r="N57" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="O57" s="86" t="s">
+      <c r="O57" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="P57" s="86" t="s">
+      <c r="P57" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="86" t="s">
+      <c r="Q57" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R57" s="140" t="s">
+      <c r="R57" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L58" s="38"/>
-      <c r="M58" s="59">
+      <c r="M58" s="57">
         <v>20</v>
       </c>
       <c r="N58" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O58" s="79" t="s">
+      <c r="O58" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="P58" s="79" t="s">
+      <c r="P58" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="79" t="s">
+      <c r="Q58" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="141" t="s">
+      <c r="R58" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L59" s="38"/>
-      <c r="M59" s="59">
+      <c r="M59" s="57">
         <v>32</v>
       </c>
       <c r="N59" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O59" s="79" t="s">
+      <c r="O59" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="P59" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="79" t="s">
+      <c r="P59" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="141" t="s">
+      <c r="R59" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="60" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L60" s="38"/>
-      <c r="M60" s="59">
+      <c r="M60" s="57">
         <v>4</v>
       </c>
       <c r="N60" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O60" s="79" t="s">
+      <c r="O60" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P60" s="79" t="s">
+      <c r="P60" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q60" s="79" t="s">
+      <c r="Q60" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R60" s="141" t="s">
+      <c r="R60" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L61" s="38"/>
-      <c r="M61" s="59">
+      <c r="M61" s="57">
         <v>33</v>
       </c>
       <c r="N61" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O61" s="79" t="s">
+      <c r="O61" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="P61" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="79" t="s">
+      <c r="P61" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="33"/>
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L62" s="38"/>
-      <c r="M62" s="59">
+      <c r="M62" s="57">
         <v>21</v>
       </c>
       <c r="N62" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O62" s="79" t="s">
+      <c r="O62" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="79" t="s">
+      <c r="P62" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="79" t="s">
+      <c r="Q62" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R62" s="33"/>
     </row>
     <row r="63" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L63" s="38"/>
-      <c r="M63" s="59">
+      <c r="M63" s="57">
         <v>22</v>
       </c>
       <c r="N63" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O63" s="79" t="s">
+      <c r="O63" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P63" s="79" t="s">
+      <c r="P63" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="79" t="s">
+      <c r="Q63" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R63" s="33"/>
     </row>
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L64" s="38"/>
-      <c r="M64" s="59">
+      <c r="M64" s="57">
         <v>23</v>
       </c>
       <c r="N64" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O64" s="79" t="s">
+      <c r="O64" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="P64" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q64" s="79" t="s">
+      <c r="P64" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R64" s="33"/>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="38"/>
-      <c r="M65" s="59">
+      <c r="M65" s="57">
         <v>8</v>
       </c>
       <c r="N65" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O65" s="79" t="s">
+      <c r="O65" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="P65" s="79" t="s">
+      <c r="P65" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="Q65" s="79" t="s">
+      <c r="Q65" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R65" s="33"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="38"/>
-      <c r="M66" s="59">
+      <c r="M66" s="57">
         <v>34</v>
       </c>
       <c r="N66" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="79" t="s">
+      <c r="O66" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="P66" s="79" t="s">
+      <c r="P66" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="Q66" s="79" t="s">
+      <c r="Q66" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R66" s="33"/>
     </row>
     <row r="67" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L67" s="39"/>
-      <c r="M67" s="60">
+      <c r="M67" s="58">
         <v>15</v>
       </c>
-      <c r="N67" s="54" t="s">
+      <c r="N67" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="90" t="s">
+      <c r="O67" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P67" s="90" t="s">
+      <c r="P67" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="90" t="s">
+      <c r="Q67" s="88" t="s">
         <v>20</v>
       </c>
       <c r="R67" s="34"/>
@@ -5288,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="K28" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5326,28 +5410,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -5358,13 +5442,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -5375,11 +5459,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5391,29 +5475,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5468,42 +5552,44 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="68">
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
         <v>16</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
         <v>16</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="139" t="s">
+      <c r="R9" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5511,27 +5597,29 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="59">
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>17</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>17</v>
       </c>
       <c r="N10" s="36" t="s">
@@ -5540,10 +5628,10 @@
       <c r="O10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="50" t="s">
+      <c r="P10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -5552,25 +5640,27 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="59">
+      <c r="G11" s="61"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>18</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>18</v>
       </c>
       <c r="N11" s="36" t="s">
@@ -5579,10 +5669,10 @@
       <c r="O11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -5591,15 +5681,17 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>254</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="59">
+      <c r="G12" s="61"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>19</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -5608,62 +5700,64 @@
       <c r="K12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="91">
+      <c r="L12" s="64"/>
+      <c r="M12" s="89">
         <v>11</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="59">
+      <c r="G13" s="62"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>20</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="93">
+      <c r="L13" s="59"/>
+      <c r="M13" s="91">
         <v>16</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="139" t="s">
+      <c r="R13" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5671,37 +5765,39 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="59">
+      <c r="G14" s="62"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>21</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="141" t="s">
+      <c r="K14" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57">
+      <c r="L14" s="59"/>
+      <c r="M14" s="55">
         <v>19</v>
       </c>
       <c r="N14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="O14" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="50" t="s">
+      <c r="P14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="35"/>
@@ -5710,37 +5806,39 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59">
+      <c r="G15" s="62"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>22</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="141" t="s">
+      <c r="K15" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="57">
+      <c r="L15" s="59"/>
+      <c r="M15" s="55">
         <v>19</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="50" t="s">
+      <c r="P15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -5749,15 +5847,17 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59">
+      <c r="G16" s="62"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>23</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -5766,62 +5866,64 @@
       <c r="K16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="133"/>
-      <c r="M16" s="91">
-        <v>20</v>
-      </c>
-      <c r="N16" s="70" t="s">
+      <c r="L16" s="112"/>
+      <c r="M16" s="89">
+        <v>20</v>
+      </c>
+      <c r="N16" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="67" t="s">
+      <c r="P16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="90"/>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="77" t="s">
+        <v>255</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="60">
+      <c r="G17" s="62"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="58">
         <v>24</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="155" t="s">
+      <c r="K17" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="138"/>
-      <c r="M17" s="68">
+      <c r="L17" s="117"/>
+      <c r="M17" s="66">
         <v>16</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O17" s="86" t="s">
+      <c r="O17" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="86" t="s">
+      <c r="Q17" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="140" t="s">
+      <c r="R17" s="119" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5829,31 +5931,33 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="59">
+      <c r="M18" s="57">
         <v>21</v>
       </c>
-      <c r="N18" s="79" t="s">
+      <c r="N18" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="79" t="s">
+      <c r="O18" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="79" t="s">
+      <c r="P18" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="141" t="s">
+      <c r="R18" s="120" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5861,28 +5965,30 @@
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="77" t="s">
+        <v>256</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="59">
+      <c r="M19" s="57">
         <v>15</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="79" t="s">
+      <c r="P19" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="79" t="s">
+      <c r="Q19" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R19" s="33"/>
@@ -5891,28 +5997,30 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="64"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>19</v>
       </c>
-      <c r="N20" s="79" t="s">
+      <c r="N20" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P20" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="79" t="s">
+      <c r="P20" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="33"/>
@@ -5921,28 +6029,30 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="59">
+      <c r="M21" s="57">
         <v>22</v>
       </c>
-      <c r="N21" s="79" t="s">
+      <c r="N21" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="79" t="s">
+      <c r="P21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -5951,350 +6061,354 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="64"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="59">
+      <c r="M22" s="57">
         <v>19</v>
       </c>
-      <c r="N22" s="79" t="s">
+      <c r="N22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="79" t="s">
+      <c r="O22" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P22" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="79" t="s">
+      <c r="P22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80">
+      <c r="B23" s="78">
         <v>15</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="77" t="s">
+        <v>247</v>
+      </c>
       <c r="E23" s="42"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="39"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="59">
+      <c r="M23" s="57">
         <v>19</v>
       </c>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="79" t="s">
+      <c r="O23" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="79" t="s">
+      <c r="P23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="79" t="s">
+      <c r="Q23" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L24" s="38"/>
-      <c r="M24" s="59">
+      <c r="M24" s="57">
         <v>19</v>
       </c>
-      <c r="N24" s="79" t="s">
+      <c r="N24" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="79" t="s">
+      <c r="P24" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L25" s="38"/>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>23</v>
       </c>
-      <c r="N25" s="79" t="s">
+      <c r="N25" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="79" t="s">
+      <c r="P25" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="79" t="s">
+      <c r="Q25" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L26" s="38"/>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>12</v>
       </c>
-      <c r="N26" s="79" t="s">
+      <c r="N26" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q26" s="79" t="s">
+      <c r="Q26" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L27" s="39"/>
-      <c r="M27" s="123">
+      <c r="M27" s="102">
         <v>23</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="125" t="s">
+      <c r="O27" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="125" t="s">
+      <c r="P27" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="126"/>
+      <c r="Q27" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="105"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L28" s="69"/>
-      <c r="M28" s="68">
+      <c r="L28" s="67"/>
+      <c r="M28" s="66">
         <v>16</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="86" t="s">
+      <c r="O28" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="86" t="s">
+      <c r="Q28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="140" t="s">
+      <c r="R28" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="38"/>
-      <c r="M29" s="59">
-        <v>24</v>
-      </c>
-      <c r="N29" s="79" t="s">
+      <c r="M29" s="57">
+        <v>24</v>
+      </c>
+      <c r="N29" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="79" t="s">
+      <c r="O29" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="79" t="s">
+      <c r="P29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="141" t="s">
+      <c r="R29" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="38"/>
-      <c r="M30" s="59">
+      <c r="M30" s="57">
         <v>15</v>
       </c>
-      <c r="N30" s="79" t="s">
+      <c r="N30" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="P30" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="79" t="s">
+      <c r="Q30" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="38"/>
-      <c r="M31" s="59">
+      <c r="M31" s="57">
         <v>19</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="79" t="s">
+      <c r="P31" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="38"/>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>22</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="79" t="s">
+      <c r="P32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
-      <c r="M33" s="59">
+      <c r="M33" s="57">
         <v>19</v>
       </c>
-      <c r="N33" s="79" t="s">
+      <c r="N33" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="79" t="s">
+      <c r="P33" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="38"/>
-      <c r="M34" s="59">
+      <c r="M34" s="57">
         <v>19</v>
       </c>
-      <c r="N34" s="79" t="s">
+      <c r="N34" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="79" t="s">
+      <c r="P34" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="79" t="s">
+      <c r="Q34" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="38"/>
-      <c r="M35" s="59">
+      <c r="M35" s="57">
         <v>19</v>
       </c>
-      <c r="N35" s="79" t="s">
+      <c r="N35" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="79" t="s">
+      <c r="P35" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="38"/>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>23</v>
       </c>
-      <c r="N36" s="79" t="s">
+      <c r="N36" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="79" t="s">
+      <c r="P36" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="38"/>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>13</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="123">
+      <c r="M38" s="102">
         <v>23</v>
       </c>
-      <c r="N38" s="125" t="s">
+      <c r="N38" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="125" t="s">
+      <c r="O38" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="125" t="s">
+      <c r="P38" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="126"/>
+      <c r="Q38" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6317,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6355,28 +6469,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -6387,13 +6501,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -6404,11 +6518,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6420,29 +6534,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6500,39 +6614,41 @@
       <c r="C9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="68">
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
         <v>13</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
         <v>13</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="139" t="s">
+      <c r="R9" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6543,24 +6659,26 @@
       <c r="C10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="59">
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>14</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>14</v>
       </c>
       <c r="N10" s="36" t="s">
@@ -6569,10 +6687,10 @@
       <c r="O10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="50" t="s">
+      <c r="P10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -6584,34 +6702,36 @@
       <c r="C11" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="59">
+      <c r="G11" s="61"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>15</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>15</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -6623,37 +6743,39 @@
       <c r="C12" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="59">
+      <c r="G12" s="61"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>16</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="91">
+      <c r="L12" s="64"/>
+      <c r="M12" s="89">
         <v>8</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
@@ -6662,37 +6784,39 @@
       <c r="C13" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="59">
+      <c r="G13" s="62"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>17</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="95">
+      <c r="L13" s="117"/>
+      <c r="M13" s="93">
         <v>13</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="O13" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="P13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="139" t="s">
+      <c r="R13" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6703,34 +6827,36 @@
       <c r="C14" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="59">
+      <c r="G14" s="62"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>18</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="141" t="s">
+      <c r="K14" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="96">
+      <c r="L14" s="59"/>
+      <c r="M14" s="94">
         <v>17</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="79" t="s">
+      <c r="O14" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="79" t="s">
+      <c r="P14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -6742,34 +6868,36 @@
       <c r="C15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>257</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59">
+      <c r="G15" s="62"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>19</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="141" t="s">
+      <c r="K15" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="96">
+      <c r="L15" s="59"/>
+      <c r="M15" s="94">
         <v>3</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="79" t="s">
+      <c r="O15" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="75" t="s">
+      <c r="P15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="79" t="s">
+      <c r="Q15" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -6781,22 +6909,24 @@
       <c r="C16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>256</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59">
+      <c r="G16" s="62"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>20</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="96">
+      <c r="L16" s="59"/>
+      <c r="M16" s="94">
         <v>4</v>
       </c>
       <c r="N16" s="37" t="s">
@@ -6805,10 +6935,10 @@
       <c r="O16" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -6820,12 +6950,14 @@
       <c r="C17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="60">
+      <c r="G17" s="62"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="58">
         <v>21</v>
       </c>
       <c r="J17" s="42" t="s">
@@ -6834,23 +6966,23 @@
       <c r="K17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="74">
+      <c r="L17" s="112"/>
+      <c r="M17" s="72">
         <v>5</v>
       </c>
-      <c r="N17" s="122" t="s">
+      <c r="N17" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="122" t="s">
+      <c r="O17" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="134"/>
+      <c r="Q17" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="113"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
@@ -6859,28 +6991,30 @@
       <c r="C18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="38"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="68">
+      <c r="L18" s="67"/>
+      <c r="M18" s="66">
         <v>13</v>
       </c>
-      <c r="N18" s="86" t="s">
+      <c r="N18" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="86" t="s">
+      <c r="P18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="86" t="s">
+      <c r="Q18" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="140" t="s">
+      <c r="R18" s="119" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6891,425 +7025,429 @@
       <c r="C19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="59">
+      <c r="M19" s="57">
         <v>18</v>
       </c>
-      <c r="N19" s="79" t="s">
+      <c r="N19" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P19" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="141" t="s">
+      <c r="R19" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80">
+      <c r="B20" s="78">
         <v>12</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42" t="s">
+        <v>247</v>
+      </c>
       <c r="E20" s="42"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="39"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>12</v>
       </c>
-      <c r="N20" s="79" t="s">
+      <c r="N20" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="79" t="s">
+      <c r="P20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="33"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L21" s="38"/>
-      <c r="M21" s="59">
+      <c r="M21" s="57">
         <v>16</v>
       </c>
-      <c r="N21" s="79" t="s">
+      <c r="N21" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="79" t="s">
+      <c r="P21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L22" s="38"/>
-      <c r="M22" s="59">
-        <v>20</v>
-      </c>
-      <c r="N22" s="79" t="s">
+      <c r="M22" s="57">
+        <v>20</v>
+      </c>
+      <c r="N22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="79" t="s">
+      <c r="O22" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="79" t="s">
+      <c r="P22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L23" s="38"/>
-      <c r="M23" s="59">
+      <c r="M23" s="57">
         <v>16</v>
       </c>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="79" t="s">
+      <c r="O23" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="79" t="s">
+      <c r="P23" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L24" s="38"/>
-      <c r="M24" s="59">
+      <c r="M24" s="57">
         <v>16</v>
       </c>
-      <c r="N24" s="79" t="s">
+      <c r="N24" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="79" t="s">
+      <c r="P24" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="79" t="s">
+      <c r="Q24" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L25" s="38"/>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>16</v>
       </c>
-      <c r="N25" s="79" t="s">
+      <c r="N25" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="79" t="s">
+      <c r="P25" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L26" s="38"/>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>21</v>
       </c>
-      <c r="N26" s="79" t="s">
+      <c r="N26" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="79" t="s">
+      <c r="Q26" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L27" s="38"/>
-      <c r="M27" s="59">
+      <c r="M27" s="57">
         <v>9</v>
       </c>
-      <c r="N27" s="79" t="s">
+      <c r="N27" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="79" t="s">
+      <c r="Q27" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
-      <c r="M28" s="127">
+      <c r="M28" s="106">
         <v>21</v>
       </c>
-      <c r="N28" s="129" t="s">
+      <c r="N28" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="129" t="s">
+      <c r="O28" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="129" t="s">
+      <c r="P28" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="130"/>
+      <c r="Q28" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="109"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="136"/>
-      <c r="M29" s="68">
+      <c r="L29" s="115"/>
+      <c r="M29" s="66">
         <v>13</v>
       </c>
-      <c r="N29" s="86" t="s">
+      <c r="N29" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="86" t="s">
+      <c r="O29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="86" t="s">
+      <c r="P29" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="86" t="s">
+      <c r="Q29" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="140" t="s">
+      <c r="R29" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L30" s="55"/>
-      <c r="M30" s="59">
+      <c r="L30" s="53"/>
+      <c r="M30" s="57">
         <v>19</v>
       </c>
-      <c r="N30" s="79" t="s">
+      <c r="N30" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="79" t="s">
+      <c r="P30" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="141" t="s">
+      <c r="R30" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L31" s="55"/>
-      <c r="M31" s="59">
+      <c r="L31" s="53"/>
+      <c r="M31" s="57">
         <v>12</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="79" t="s">
+      <c r="Q31" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L32" s="55"/>
-      <c r="M32" s="59">
+      <c r="L32" s="53"/>
+      <c r="M32" s="57">
         <v>16</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P32" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="79" t="s">
+      <c r="P32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L33" s="55"/>
-      <c r="M33" s="59">
-        <v>20</v>
-      </c>
-      <c r="N33" s="79" t="s">
+      <c r="L33" s="53"/>
+      <c r="M33" s="57">
+        <v>20</v>
+      </c>
+      <c r="N33" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="79" t="s">
+      <c r="P33" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L34" s="55"/>
-      <c r="M34" s="59">
+      <c r="L34" s="53"/>
+      <c r="M34" s="57">
         <v>16</v>
       </c>
-      <c r="N34" s="79" t="s">
+      <c r="N34" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="79" t="s">
+      <c r="P34" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L35" s="55"/>
-      <c r="M35" s="59">
+      <c r="L35" s="53"/>
+      <c r="M35" s="57">
         <v>16</v>
       </c>
-      <c r="N35" s="79" t="s">
+      <c r="N35" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="79" t="s">
+      <c r="P35" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="79" t="s">
+      <c r="Q35" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L36" s="55"/>
-      <c r="M36" s="59">
+      <c r="L36" s="53"/>
+      <c r="M36" s="57">
         <v>16</v>
       </c>
-      <c r="N36" s="79" t="s">
+      <c r="N36" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P36" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="79" t="s">
+      <c r="P36" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L37" s="55"/>
-      <c r="M37" s="59">
+      <c r="L37" s="53"/>
+      <c r="M37" s="57">
         <v>21</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L38" s="55"/>
-      <c r="M38" s="59">
+      <c r="L38" s="53"/>
+      <c r="M38" s="57">
         <v>10</v>
       </c>
-      <c r="N38" s="79" t="s">
+      <c r="N38" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="79" t="s">
+      <c r="P38" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="79" t="s">
+      <c r="Q38" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
     </row>
     <row r="39" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L39" s="94"/>
-      <c r="M39" s="123">
+      <c r="L39" s="92"/>
+      <c r="M39" s="102">
         <v>21</v>
       </c>
-      <c r="N39" s="125" t="s">
+      <c r="N39" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="125" t="s">
+      <c r="O39" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="125" t="s">
+      <c r="P39" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="126"/>
+      <c r="Q39" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7332,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7370,28 +7508,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -7402,13 +7540,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -7419,11 +7557,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7435,29 +7573,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7512,40 +7650,42 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="68">
+      <c r="G9" s="60"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
         <v>10</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
         <v>10</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="139" t="s">
+      <c r="R9" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7553,25 +7693,27 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="59">
+      <c r="G10" s="61"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>11</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>11</v>
       </c>
       <c r="N10" s="36" t="s">
@@ -7580,10 +7722,10 @@
       <c r="O10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="50" t="s">
+      <c r="P10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -7592,37 +7734,39 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="59">
+      <c r="G11" s="61"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>12</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>12</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -7631,79 +7775,83 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="59">
+      <c r="G12" s="61"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>13</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="91">
+      <c r="L12" s="64"/>
+      <c r="M12" s="89">
         <v>6</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>255</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="59">
+      <c r="G13" s="62"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>14</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="95">
+      <c r="L13" s="117"/>
+      <c r="M13" s="93">
         <v>10</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="O13" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="P13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="139" t="s">
+      <c r="R13" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7711,37 +7859,39 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>256</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="59">
+      <c r="G14" s="62"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>15</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="141" t="s">
+      <c r="K14" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="96">
+      <c r="L14" s="59"/>
+      <c r="M14" s="94">
         <v>14</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="79" t="s">
+      <c r="O14" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="79" t="s">
+      <c r="P14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -7750,37 +7900,39 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59">
+      <c r="G15" s="62"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>16</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="141" t="s">
+      <c r="K15" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="96">
+      <c r="L15" s="59"/>
+      <c r="M15" s="94">
         <v>4</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="79" t="s">
+      <c r="O15" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="75" t="s">
+      <c r="P15" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="79" t="s">
+      <c r="Q15" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -7789,25 +7941,27 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59">
+      <c r="G16" s="62"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>17</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="96">
+      <c r="L16" s="59"/>
+      <c r="M16" s="94">
         <v>3</v>
       </c>
       <c r="N16" s="37" t="s">
@@ -7816,27 +7970,29 @@
       <c r="O16" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80">
+      <c r="B17" s="78">
         <v>9</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="60">
+      <c r="D17" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="97"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="58">
         <v>18</v>
       </c>
       <c r="J17" s="42" t="s">
@@ -7845,449 +8001,449 @@
       <c r="K17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="74">
+      <c r="L17" s="112"/>
+      <c r="M17" s="72">
         <v>5</v>
       </c>
-      <c r="N17" s="122" t="s">
+      <c r="N17" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="122" t="s">
+      <c r="O17" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="134"/>
+      <c r="Q17" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="113"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="69"/>
-      <c r="M18" s="68">
+      <c r="L18" s="67"/>
+      <c r="M18" s="66">
         <v>10</v>
       </c>
-      <c r="N18" s="86" t="s">
+      <c r="N18" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="86" t="s">
+      <c r="P18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="86" t="s">
+      <c r="Q18" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="140" t="s">
+      <c r="R18" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L19" s="38"/>
-      <c r="M19" s="59">
+      <c r="M19" s="57">
         <v>15</v>
       </c>
-      <c r="N19" s="79" t="s">
+      <c r="N19" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P19" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="141" t="s">
+      <c r="R19" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L20" s="38"/>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>9</v>
       </c>
-      <c r="N20" s="79" t="s">
+      <c r="N20" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="79" t="s">
+      <c r="P20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="33"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L21" s="38"/>
-      <c r="M21" s="59">
+      <c r="M21" s="57">
         <v>13</v>
       </c>
-      <c r="N21" s="79" t="s">
+      <c r="N21" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="79" t="s">
+      <c r="P21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L22" s="38"/>
-      <c r="M22" s="59">
+      <c r="M22" s="57">
         <v>17</v>
       </c>
-      <c r="N22" s="79" t="s">
+      <c r="N22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="79" t="s">
+      <c r="O22" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="79" t="s">
+      <c r="P22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L23" s="38"/>
-      <c r="M23" s="59">
+      <c r="M23" s="57">
         <v>13</v>
       </c>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="79" t="s">
+      <c r="O23" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="79" t="s">
+      <c r="P23" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L24" s="38"/>
-      <c r="M24" s="59">
+      <c r="M24" s="57">
         <v>13</v>
       </c>
-      <c r="N24" s="79" t="s">
+      <c r="N24" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="79" t="s">
+      <c r="P24" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="79" t="s">
+      <c r="Q24" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L25" s="38"/>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>13</v>
       </c>
-      <c r="N25" s="79" t="s">
+      <c r="N25" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="79" t="s">
+      <c r="P25" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L26" s="38"/>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>18</v>
       </c>
-      <c r="N26" s="79" t="s">
+      <c r="N26" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="79" t="s">
+      <c r="Q26" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L27" s="38"/>
-      <c r="M27" s="59">
+      <c r="M27" s="57">
         <v>7</v>
       </c>
-      <c r="N27" s="79" t="s">
+      <c r="N27" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="79" t="s">
+      <c r="Q27" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
-      <c r="M28" s="60">
+      <c r="M28" s="58">
         <v>18</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="125" t="s">
+      <c r="O28" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="125" t="s">
+      <c r="P28" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="126"/>
+      <c r="Q28" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="105"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="69"/>
-      <c r="M29" s="68">
+      <c r="L29" s="67"/>
+      <c r="M29" s="66">
         <v>10</v>
       </c>
-      <c r="N29" s="135" t="s">
+      <c r="N29" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="135" t="s">
+      <c r="O29" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="135" t="s">
+      <c r="P29" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="135" t="s">
+      <c r="Q29" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="146" t="s">
+      <c r="R29" s="125" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="38"/>
-      <c r="M30" s="59">
+      <c r="M30" s="57">
         <v>16</v>
       </c>
-      <c r="N30" s="79" t="s">
+      <c r="N30" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="79" t="s">
+      <c r="P30" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="141" t="s">
+      <c r="R30" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="38"/>
-      <c r="M31" s="59">
+      <c r="M31" s="57">
         <v>9</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="79" t="s">
+      <c r="Q31" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="38"/>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>13</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P32" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="79" t="s">
+      <c r="P32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
-      <c r="M33" s="59">
+      <c r="M33" s="57">
         <v>17</v>
       </c>
-      <c r="N33" s="79" t="s">
+      <c r="N33" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="79" t="s">
+      <c r="P33" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="38"/>
-      <c r="M34" s="59">
+      <c r="M34" s="57">
         <v>13</v>
       </c>
-      <c r="N34" s="79" t="s">
+      <c r="N34" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="79" t="s">
+      <c r="P34" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="38"/>
-      <c r="M35" s="59">
+      <c r="M35" s="57">
         <v>13</v>
       </c>
-      <c r="N35" s="79" t="s">
+      <c r="N35" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="79" t="s">
+      <c r="P35" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="79" t="s">
+      <c r="Q35" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="38"/>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>13</v>
       </c>
-      <c r="N36" s="79" t="s">
+      <c r="N36" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P36" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="79" t="s">
+      <c r="P36" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="38"/>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>18</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L38" s="38"/>
-      <c r="M38" s="59">
+      <c r="M38" s="57">
         <v>8</v>
       </c>
-      <c r="N38" s="79" t="s">
+      <c r="N38" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="79" t="s">
+      <c r="P38" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="79" t="s">
+      <c r="Q38" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
     </row>
     <row r="39" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L39" s="39"/>
-      <c r="M39" s="60">
+      <c r="M39" s="58">
         <v>18</v>
       </c>
-      <c r="N39" s="125" t="s">
+      <c r="N39" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="125" t="s">
+      <c r="O39" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="125" t="s">
+      <c r="P39" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="126"/>
+      <c r="Q39" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8310,8 +8466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="K40" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8348,28 +8504,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -8380,13 +8536,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -8397,11 +8553,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8413,29 +8569,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8490,64 +8646,68 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="150"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="71">
+      <c r="I9" s="69">
         <v>25</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
         <v>25</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="53"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <v>26</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>26</v>
       </c>
       <c r="N10" s="36" t="s">
@@ -8556,10 +8716,10 @@
       <c r="O10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="50" t="s">
+      <c r="P10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -8568,37 +8728,39 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="151"/>
+      <c r="G11" s="130"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="72">
+      <c r="I11" s="70">
         <v>27</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>27</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -8607,15 +8769,17 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="151"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <v>28</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -8624,23 +8788,23 @@
       <c r="K12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="91">
+      <c r="L12" s="64"/>
+      <c r="M12" s="89">
         <v>29</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
@@ -8649,90 +8813,96 @@
       <c r="C13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>250</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="72">
+      <c r="I13" s="70">
         <v>29</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="93">
+      <c r="L13" s="98"/>
+      <c r="M13" s="91">
         <v>25</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="158" t="s">
+      <c r="O13" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="158" t="s">
+      <c r="P13" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="158" t="s">
+      <c r="Q13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="139"/>
+      <c r="R13" s="118"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>258</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="152"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="72">
+      <c r="I14" s="70">
         <v>30</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="141" t="s">
+      <c r="K14" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="57">
+      <c r="L14" s="76"/>
+      <c r="M14" s="55">
         <v>30</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="159" t="s">
+      <c r="O14" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="156"/>
+      <c r="P14" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="135"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="152"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="72">
+      <c r="I15" s="70">
         <v>31</v>
       </c>
       <c r="J15" s="30" t="s">
@@ -8741,170 +8911,178 @@
       <c r="K15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="57">
+      <c r="L15" s="76"/>
+      <c r="M15" s="55">
         <v>28</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="159" t="s">
+      <c r="O15" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="156"/>
+      <c r="P15" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="135"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="152"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="72">
+      <c r="I16" s="70">
         <v>32</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="57">
+      <c r="L16" s="76"/>
+      <c r="M16" s="55">
         <v>6</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="159" t="s">
+      <c r="O16" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="156"/>
+      <c r="P16" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="135"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="152"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="72">
+      <c r="I17" s="70">
         <v>33</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="141" t="s">
+      <c r="K17" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="59">
+      <c r="L17" s="76"/>
+      <c r="M17" s="57">
         <v>7</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="159" t="s">
+      <c r="O17" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="159" t="s">
+      <c r="P17" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="141"/>
+      <c r="Q17" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="120"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="152"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="73">
+      <c r="I18" s="71">
         <v>34</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="155" t="s">
+      <c r="K18" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="59">
+      <c r="L18" s="76"/>
+      <c r="M18" s="57">
         <v>31</v>
       </c>
       <c r="N18" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="159" t="s">
+      <c r="O18" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="141"/>
+      <c r="P18" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="120"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="77" t="s">
+        <v>259</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="152"/>
+      <c r="G19" s="131"/>
       <c r="H19" s="38"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="59">
+      <c r="L19" s="53"/>
+      <c r="M19" s="57">
         <v>31</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="159" t="s">
+      <c r="O19" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="141"/>
+      <c r="P19" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="120"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
@@ -8913,268 +9091,286 @@
       <c r="C20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="152"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="38"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="59">
+      <c r="L20" s="53"/>
+      <c r="M20" s="57">
         <v>31</v>
       </c>
       <c r="N20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O20" s="159" t="s">
+      <c r="O20" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="141"/>
+      <c r="P20" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="120"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="77" t="s">
+        <v>260</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="152"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="38"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="59">
+      <c r="L21" s="53"/>
+      <c r="M21" s="57">
         <v>11</v>
       </c>
       <c r="N21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="159" t="s">
+      <c r="O21" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="159" t="s">
+      <c r="P21" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="141"/>
+      <c r="Q21" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="120"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="152"/>
+      <c r="G22" s="131"/>
       <c r="H22" s="38"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="59">
+      <c r="L22" s="53"/>
+      <c r="M22" s="57">
         <v>31</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="159" t="s">
+      <c r="O22" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="141"/>
+      <c r="P22" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="120"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="152"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="38"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="59">
+      <c r="L23" s="53"/>
+      <c r="M23" s="57">
         <v>31</v>
       </c>
       <c r="N23" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="159" t="s">
+      <c r="O23" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="159" t="s">
+      <c r="P23" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="141"/>
+      <c r="Q23" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="120"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="152"/>
+      <c r="G24" s="131"/>
       <c r="H24" s="38"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="59">
+      <c r="L24" s="53"/>
+      <c r="M24" s="57">
         <v>31</v>
       </c>
       <c r="N24" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="159" t="s">
+      <c r="O24" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="159" t="s">
+      <c r="P24" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="141"/>
+      <c r="Q24" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="120"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="77" t="s">
+        <v>255</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="152"/>
+      <c r="G25" s="131"/>
       <c r="H25" s="38"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="59">
+      <c r="L25" s="53"/>
+      <c r="M25" s="57">
         <v>10</v>
       </c>
       <c r="N25" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="159" t="s">
+      <c r="O25" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="141"/>
+      <c r="P25" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="120"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="152"/>
+      <c r="G26" s="131"/>
       <c r="H26" s="38"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="59">
+      <c r="L26" s="53"/>
+      <c r="M26" s="57">
         <v>31</v>
       </c>
       <c r="N26" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O26" s="159" t="s">
+      <c r="O26" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="141"/>
+      <c r="P26" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="120"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E27" s="26"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="152"/>
+      <c r="G27" s="131"/>
       <c r="H27" s="38"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="137">
+      <c r="L27" s="92"/>
+      <c r="M27" s="116">
         <v>31</v>
       </c>
-      <c r="N27" s="122" t="s">
+      <c r="N27" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="160" t="s">
+      <c r="O27" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="P27" s="160" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="160" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="157"/>
+      <c r="P27" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="136"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>20</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E28" s="26"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="152"/>
+      <c r="G28" s="131"/>
       <c r="H28" s="38"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="68">
+      <c r="L28" s="67"/>
+      <c r="M28" s="66">
         <v>25</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="86" t="s">
+      <c r="O28" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="86" t="s">
+      <c r="Q28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="140" t="s">
+      <c r="R28" s="119" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9182,31 +9378,33 @@
       <c r="B29" s="25">
         <v>21</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="77" t="s">
+        <v>261</v>
+      </c>
       <c r="E29" s="26"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="152"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="59">
+      <c r="M29" s="57">
         <v>32</v>
       </c>
-      <c r="N29" s="79" t="s">
+      <c r="N29" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="79" t="s">
+      <c r="O29" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="79" t="s">
+      <c r="P29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="141" t="s">
+      <c r="R29" s="120" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9214,28 +9412,30 @@
       <c r="B30" s="25">
         <v>22</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="152"/>
+      <c r="G30" s="131"/>
       <c r="H30" s="38"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="59">
-        <v>24</v>
-      </c>
-      <c r="N30" s="79" t="s">
+      <c r="M30" s="57">
+        <v>24</v>
+      </c>
+      <c r="N30" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="P30" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="79" t="s">
+      <c r="Q30" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
@@ -9244,388 +9444,392 @@
       <c r="B31" s="25">
         <v>23</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E31" s="26"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="152"/>
+      <c r="G31" s="131"/>
       <c r="H31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="59">
+      <c r="M31" s="57">
         <v>28</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="79" t="s">
+      <c r="P31" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="80">
+      <c r="B32" s="78">
         <v>24</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="42" t="s">
+        <v>247</v>
+      </c>
       <c r="E32" s="42"/>
       <c r="F32" s="45"/>
-      <c r="G32" s="153"/>
+      <c r="G32" s="132"/>
       <c r="H32" s="39"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>34</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="79" t="s">
+      <c r="P32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
-      <c r="M33" s="59">
+      <c r="M33" s="57">
         <v>28</v>
       </c>
-      <c r="N33" s="79" t="s">
+      <c r="N33" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="79" t="s">
+      <c r="P33" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="38"/>
-      <c r="M34" s="59">
+      <c r="M34" s="57">
         <v>28</v>
       </c>
-      <c r="N34" s="79" t="s">
+      <c r="N34" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="79" t="s">
+      <c r="P34" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="79" t="s">
+      <c r="Q34" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="38"/>
-      <c r="M35" s="59">
+      <c r="M35" s="57">
         <v>28</v>
       </c>
-      <c r="N35" s="79" t="s">
+      <c r="N35" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="79" t="s">
+      <c r="P35" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="38"/>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>31</v>
       </c>
-      <c r="N36" s="79" t="s">
+      <c r="N36" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="79" t="s">
+      <c r="P36" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="38"/>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>8</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="123">
+      <c r="M38" s="102">
         <v>31</v>
       </c>
-      <c r="N38" s="125" t="s">
+      <c r="N38" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="125" t="s">
+      <c r="O38" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="125" t="s">
+      <c r="P38" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="126"/>
+      <c r="Q38" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="105"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="69"/>
-      <c r="M39" s="68">
+      <c r="L39" s="67"/>
+      <c r="M39" s="66">
         <v>25</v>
       </c>
-      <c r="N39" s="148" t="s">
+      <c r="N39" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="O39" s="135" t="s">
+      <c r="O39" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="135" t="s">
+      <c r="P39" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="135" t="s">
+      <c r="Q39" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="146" t="s">
+      <c r="R39" s="125" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="38"/>
-      <c r="M40" s="59">
+      <c r="M40" s="57">
         <v>33</v>
       </c>
       <c r="N40" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O40" s="79" t="s">
+      <c r="O40" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P40" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="79" t="s">
+      <c r="P40" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="141" t="s">
+      <c r="R40" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="38"/>
-      <c r="M41" s="59">
+      <c r="M41" s="57">
         <v>24</v>
       </c>
       <c r="N41" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O41" s="79" t="s">
+      <c r="O41" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="79" t="s">
+      <c r="P41" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="79" t="s">
+      <c r="Q41" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="38"/>
-      <c r="M42" s="59">
+      <c r="M42" s="57">
         <v>28</v>
       </c>
       <c r="N42" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O42" s="79" t="s">
+      <c r="O42" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P42" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="79" t="s">
+      <c r="P42" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="38"/>
-      <c r="M43" s="59">
+      <c r="M43" s="57">
         <v>34</v>
       </c>
       <c r="N43" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="79" t="s">
+      <c r="O43" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="79" t="s">
+      <c r="P43" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="38"/>
-      <c r="M44" s="59">
+      <c r="M44" s="57">
         <v>28</v>
       </c>
       <c r="N44" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O44" s="79" t="s">
+      <c r="O44" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P44" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="79" t="s">
+      <c r="P44" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L45" s="38"/>
-      <c r="M45" s="59">
+      <c r="M45" s="57">
         <v>28</v>
       </c>
       <c r="N45" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O45" s="79" t="s">
+      <c r="O45" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="79" t="s">
+      <c r="P45" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="79" t="s">
+      <c r="Q45" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="38"/>
-      <c r="M46" s="59">
+      <c r="M46" s="57">
         <v>28</v>
       </c>
       <c r="N46" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O46" s="79" t="s">
+      <c r="O46" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P46" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="79" t="s">
+      <c r="P46" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="38"/>
-      <c r="M47" s="59">
+      <c r="M47" s="57">
         <v>31</v>
       </c>
       <c r="N47" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O47" s="79" t="s">
+      <c r="O47" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="79" t="s">
+      <c r="P47" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="79" t="s">
+      <c r="Q47" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="38"/>
-      <c r="M48" s="59">
+      <c r="M48" s="57">
         <v>19</v>
       </c>
       <c r="N48" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O48" s="79" t="s">
+      <c r="O48" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P48" s="79" t="s">
+      <c r="P48" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q48" s="79" t="s">
+      <c r="Q48" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R48" s="33"/>
     </row>
     <row r="49" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L49" s="39"/>
-      <c r="M49" s="123">
+      <c r="M49" s="102">
         <v>31</v>
       </c>
-      <c r="N49" s="124" t="s">
+      <c r="N49" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O49" s="125" t="s">
+      <c r="O49" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="125" t="s">
+      <c r="P49" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="126"/>
+      <c r="Q49" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9648,8 +9852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9686,28 +9890,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
         <v>41</v>
       </c>
@@ -9718,13 +9922,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
         <v>42</v>
       </c>
@@ -9735,11 +9939,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9751,29 +9955,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9828,64 +10032,68 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="150"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="71">
+      <c r="I9" s="69">
         <v>17</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="56">
+      <c r="L9" s="64"/>
+      <c r="M9" s="54">
         <v>17</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="86" t="s">
+      <c r="O9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="53"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <v>18</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="57">
+      <c r="L10" s="64"/>
+      <c r="M10" s="55">
         <v>18</v>
       </c>
       <c r="N10" s="36" t="s">
@@ -9894,10 +10102,10 @@
       <c r="O10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="50" t="s">
+      <c r="P10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -9906,37 +10114,39 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="151"/>
+      <c r="G11" s="130"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="72">
+      <c r="I11" s="70">
         <v>19</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="57">
+      <c r="L11" s="64"/>
+      <c r="M11" s="55">
         <v>19</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -9945,15 +10155,17 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="151"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <v>20</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -9962,76 +10174,80 @@
       <c r="K12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="91">
+      <c r="L12" s="64"/>
+      <c r="M12" s="89">
         <v>12</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="72">
+      <c r="I13" s="70">
         <v>21</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="93">
+      <c r="L13" s="117"/>
+      <c r="M13" s="91">
         <v>17</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="98" t="s">
+      <c r="P13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="98" t="s">
+      <c r="Q13" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="53"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="152"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="72">
+      <c r="I14" s="70">
         <v>22</v>
       </c>
       <c r="J14" s="30" t="s">
@@ -10040,20 +10256,20 @@
       <c r="K14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57">
+      <c r="L14" s="59"/>
+      <c r="M14" s="55">
         <v>21</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="97" t="s">
+      <c r="O14" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="97" t="s">
+      <c r="P14" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -10062,37 +10278,39 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="77" t="s">
+        <v>253</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="152"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="72">
+      <c r="I15" s="70">
         <v>23</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="141" t="s">
+      <c r="K15" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="57">
+      <c r="L15" s="59"/>
+      <c r="M15" s="55">
         <v>20</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="97" t="s">
+      <c r="P15" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -10101,37 +10319,39 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="152"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="72">
+      <c r="I16" s="70">
         <v>24</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="57">
+      <c r="L16" s="59"/>
+      <c r="M16" s="55">
         <v>4</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="97" t="s">
+      <c r="P16" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -10140,37 +10360,39 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="77" t="s">
+        <v>259</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="152"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="73">
+      <c r="I17" s="71">
         <v>25</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="155" t="s">
+      <c r="K17" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="59">
+      <c r="L17" s="59"/>
+      <c r="M17" s="57">
         <v>3</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="97" t="s">
+      <c r="O17" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="97" t="s">
+      <c r="P17" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="97" t="s">
+      <c r="Q17" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="33"/>
@@ -10179,28 +10401,30 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="152"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="59">
+      <c r="M18" s="57">
         <v>22</v>
       </c>
       <c r="N18" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="97" t="s">
+      <c r="O18" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="97" t="s">
+      <c r="P18" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R18" s="33"/>
@@ -10209,28 +10433,30 @@
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="152"/>
+      <c r="G19" s="131"/>
       <c r="H19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="59">
+      <c r="M19" s="57">
         <v>22</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="97" t="s">
+      <c r="O19" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="97" t="s">
+      <c r="P19" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="33"/>
@@ -10239,28 +10465,30 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="77" t="s">
+        <v>256</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="152"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>22</v>
       </c>
       <c r="N20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O20" s="97" t="s">
+      <c r="O20" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="97" t="s">
+      <c r="P20" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="33"/>
@@ -10269,28 +10497,30 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="152"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="59">
+      <c r="M21" s="57">
         <v>22</v>
       </c>
       <c r="N21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="97" t="s">
+      <c r="O21" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="97" t="s">
+      <c r="P21" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="Q21" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -10299,28 +10529,30 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="152"/>
+      <c r="G22" s="131"/>
       <c r="H22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="59">
+      <c r="M22" s="57">
         <v>22</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="97" t="s">
+      <c r="O22" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="97" t="s">
+      <c r="P22" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
@@ -10329,544 +10561,548 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="152"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="59">
+      <c r="M23" s="57">
         <v>22</v>
       </c>
       <c r="N23" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="97" t="s">
+      <c r="O23" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="97" t="s">
+      <c r="P23" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="97" t="s">
+      <c r="Q23" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80">
+      <c r="B24" s="78">
         <v>16</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="154"/>
+      <c r="D24" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="39"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="59">
+      <c r="M24" s="57">
         <v>22</v>
       </c>
       <c r="N24" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="97" t="s">
+      <c r="O24" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="97" t="s">
+      <c r="P24" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="97" t="s">
+      <c r="Q24" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L25" s="38"/>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>8</v>
       </c>
       <c r="N25" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="97" t="s">
+      <c r="O25" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="97" t="s">
+      <c r="P25" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L26" s="38"/>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>22</v>
       </c>
       <c r="N26" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O26" s="97" t="s">
+      <c r="O26" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="97" t="s">
+      <c r="P26" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="95" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L27" s="39"/>
-      <c r="M27" s="137">
+      <c r="M27" s="116">
         <v>22</v>
       </c>
-      <c r="N27" s="122" t="s">
+      <c r="N27" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="147" t="s">
+      <c r="O27" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="P27" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="134"/>
+      <c r="P27" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="113"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L28" s="69"/>
-      <c r="M28" s="68">
+      <c r="L28" s="67"/>
+      <c r="M28" s="66">
         <v>17</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="86" t="s">
+      <c r="O28" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="86" t="s">
+      <c r="Q28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="140" t="s">
+      <c r="R28" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="38"/>
-      <c r="M29" s="59">
+      <c r="M29" s="57">
         <v>23</v>
       </c>
-      <c r="N29" s="79" t="s">
+      <c r="N29" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="79" t="s">
+      <c r="O29" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="79" t="s">
+      <c r="P29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="141" t="s">
+      <c r="R29" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L30" s="38"/>
-      <c r="M30" s="59">
+      <c r="M30" s="57">
         <v>16</v>
       </c>
-      <c r="N30" s="79" t="s">
+      <c r="N30" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="P30" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="79" t="s">
+      <c r="Q30" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="38"/>
-      <c r="M31" s="59">
-        <v>20</v>
-      </c>
-      <c r="N31" s="79" t="s">
+      <c r="M31" s="57">
+        <v>20</v>
+      </c>
+      <c r="N31" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="79" t="s">
+      <c r="P31" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="38"/>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>25</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="79" t="s">
+      <c r="P32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
-      <c r="M33" s="59">
-        <v>20</v>
-      </c>
-      <c r="N33" s="79" t="s">
+      <c r="M33" s="57">
+        <v>20</v>
+      </c>
+      <c r="N33" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="79" t="s">
+      <c r="P33" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="38"/>
-      <c r="M34" s="59">
-        <v>20</v>
-      </c>
-      <c r="N34" s="79" t="s">
+      <c r="M34" s="57">
+        <v>20</v>
+      </c>
+      <c r="N34" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="79" t="s">
+      <c r="P34" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="79" t="s">
+      <c r="Q34" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="38"/>
-      <c r="M35" s="59">
-        <v>20</v>
-      </c>
-      <c r="N35" s="79" t="s">
+      <c r="M35" s="57">
+        <v>20</v>
+      </c>
+      <c r="N35" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="79" t="s">
+      <c r="P35" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L36" s="38"/>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>22</v>
       </c>
-      <c r="N36" s="79" t="s">
+      <c r="N36" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="79" t="s">
+      <c r="P36" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L37" s="38"/>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>13</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="137">
+      <c r="M38" s="116">
         <v>22</v>
       </c>
-      <c r="N38" s="129" t="s">
+      <c r="N38" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="129" t="s">
+      <c r="O38" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="129" t="s">
+      <c r="P38" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="130"/>
+      <c r="Q38" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="109"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="69"/>
-      <c r="M39" s="68">
+      <c r="L39" s="67"/>
+      <c r="M39" s="66">
         <v>17</v>
       </c>
-      <c r="N39" s="86" t="s">
+      <c r="N39" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="86" t="s">
+      <c r="O39" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="86" t="s">
+      <c r="P39" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="86" t="s">
+      <c r="Q39" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="140" t="s">
+      <c r="R39" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L40" s="38"/>
-      <c r="M40" s="59">
-        <v>24</v>
-      </c>
-      <c r="N40" s="79" t="s">
+      <c r="M40" s="57">
+        <v>24</v>
+      </c>
+      <c r="N40" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="79" t="s">
+      <c r="O40" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P40" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="79" t="s">
+      <c r="P40" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="141" t="s">
+      <c r="R40" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L41" s="38"/>
-      <c r="M41" s="59">
+      <c r="M41" s="57">
         <v>16</v>
       </c>
-      <c r="N41" s="79" t="s">
+      <c r="N41" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O41" s="79" t="s">
+      <c r="O41" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="79" t="s">
+      <c r="P41" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="79" t="s">
+      <c r="Q41" s="77" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L42" s="38"/>
-      <c r="M42" s="59">
-        <v>20</v>
-      </c>
-      <c r="N42" s="79" t="s">
+      <c r="M42" s="57">
+        <v>20</v>
+      </c>
+      <c r="N42" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="79" t="s">
+      <c r="O42" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="P42" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="79" t="s">
+      <c r="P42" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L43" s="38"/>
-      <c r="M43" s="59">
+      <c r="M43" s="57">
         <v>25</v>
       </c>
-      <c r="N43" s="79" t="s">
+      <c r="N43" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O43" s="79" t="s">
+      <c r="O43" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="79" t="s">
+      <c r="P43" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L44" s="38"/>
-      <c r="M44" s="59">
-        <v>20</v>
-      </c>
-      <c r="N44" s="79" t="s">
+      <c r="M44" s="57">
+        <v>20</v>
+      </c>
+      <c r="N44" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O44" s="79" t="s">
+      <c r="O44" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="P44" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="79" t="s">
+      <c r="P44" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L45" s="38"/>
-      <c r="M45" s="59">
-        <v>20</v>
-      </c>
-      <c r="N45" s="79" t="s">
+      <c r="M45" s="57">
+        <v>20</v>
+      </c>
+      <c r="N45" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O45" s="79" t="s">
+      <c r="O45" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="79" t="s">
+      <c r="P45" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="79" t="s">
+      <c r="Q45" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="38"/>
-      <c r="M46" s="59">
-        <v>20</v>
-      </c>
-      <c r="N46" s="79" t="s">
+      <c r="M46" s="57">
+        <v>20</v>
+      </c>
+      <c r="N46" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="79" t="s">
+      <c r="O46" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P46" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="79" t="s">
+      <c r="P46" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="38"/>
-      <c r="M47" s="59">
+      <c r="M47" s="57">
         <v>22</v>
       </c>
-      <c r="N47" s="79" t="s">
+      <c r="N47" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O47" s="79" t="s">
+      <c r="O47" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="79" t="s">
+      <c r="P47" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="79" t="s">
+      <c r="Q47" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="38"/>
-      <c r="M48" s="59">
+      <c r="M48" s="57">
         <v>14</v>
       </c>
-      <c r="N48" s="79" t="s">
+      <c r="N48" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="79" t="s">
+      <c r="O48" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="P48" s="79" t="s">
+      <c r="P48" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q48" s="79" t="s">
+      <c r="Q48" s="77" t="s">
         <v>20</v>
       </c>
       <c r="R48" s="33"/>
     </row>
     <row r="49" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L49" s="39"/>
-      <c r="M49" s="60">
+      <c r="M49" s="58">
         <v>22</v>
       </c>
-      <c r="N49" s="125" t="s">
+      <c r="N49" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="O49" s="125" t="s">
+      <c r="O49" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="125" t="s">
+      <c r="P49" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="126"/>
+      <c r="Q49" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_REC_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_REC_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583" activeTab="5"/>
+    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="GARANTIAS" sheetId="8" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="266">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1883,6 +1883,18 @@
   </si>
   <si>
     <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2735,19 +2747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2897,7 +2896,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -3019,9 +3018,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3042,7 +3038,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="69" applyBorder="1"/>
@@ -3062,9 +3058,9 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3079,9 +3075,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="69" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3092,10 +3088,10 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3639,7 +3635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3650,8 +3646,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3688,26 +3684,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -3720,11 +3716,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -3737,11 +3733,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3753,29 +3749,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3830,10 +3826,10 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
@@ -3845,29 +3841,29 @@
       <c r="I9" s="66">
         <v>20</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>201</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="54">
         <v>20</v>
       </c>
-      <c r="N9" s="84" t="s">
+      <c r="N9" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3875,10 +3871,10 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
@@ -3900,16 +3896,16 @@
       <c r="M10" s="55">
         <v>21</v>
       </c>
-      <c r="N10" s="77" t="s">
+      <c r="N10" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="77" t="s">
+      <c r="O10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="77" t="s">
+      <c r="P10" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="77" t="s">
+      <c r="Q10" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R10" s="35"/>
@@ -3918,10 +3914,10 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E11" s="37"/>
@@ -3941,16 +3937,16 @@
       <c r="M11" s="55">
         <v>22</v>
       </c>
-      <c r="N11" s="77" t="s">
+      <c r="N11" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="77" t="s">
+      <c r="O11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="77" t="s">
+      <c r="P11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -3959,10 +3955,10 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E12" s="37"/>
@@ -3975,23 +3971,23 @@
       <c r="J12" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="117" t="s">
         <v>202</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="55">
         <v>23</v>
       </c>
-      <c r="N12" s="77" t="s">
+      <c r="N12" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="77" t="s">
+      <c r="P12" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -4000,10 +3996,10 @@
       <c r="B13" s="43">
         <v>5</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E13" s="26"/>
@@ -4023,16 +4019,16 @@
       <c r="M13" s="55">
         <v>1</v>
       </c>
-      <c r="N13" s="77" t="s">
+      <c r="N13" s="74" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="77" t="s">
+      <c r="P13" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -4041,10 +4037,10 @@
       <c r="B14" s="43">
         <v>6</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>249</v>
       </c>
       <c r="E14" s="26"/>
@@ -4064,16 +4060,16 @@
       <c r="M14" s="55">
         <v>25</v>
       </c>
-      <c r="N14" s="77" t="s">
+      <c r="N14" s="74" t="s">
         <v>73</v>
       </c>
       <c r="O14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="77" t="s">
+      <c r="P14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="77" t="s">
+      <c r="Q14" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -4082,10 +4078,10 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E15" s="26"/>
@@ -4102,31 +4098,31 @@
         <v>38</v>
       </c>
       <c r="L15" s="59"/>
-      <c r="M15" s="85">
+      <c r="M15" s="82">
         <v>26</v>
       </c>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="83" t="s">
+      <c r="P15" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="86"/>
+      <c r="R15" s="83"/>
     </row>
     <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="26"/>
@@ -4139,23 +4135,23 @@
       <c r="J16" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="117" t="s">
         <v>203</v>
       </c>
       <c r="L16" s="59"/>
       <c r="M16" s="55">
         <v>25</v>
       </c>
-      <c r="N16" s="77" t="s">
+      <c r="N16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="77" t="s">
+      <c r="O16" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="77" t="s">
+      <c r="P16" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -4164,10 +4160,10 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E17" s="26"/>
@@ -4180,23 +4176,23 @@
       <c r="J17" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="120" t="s">
+      <c r="K17" s="117" t="s">
         <v>204</v>
       </c>
       <c r="L17" s="59"/>
       <c r="M17" s="55">
         <v>27</v>
       </c>
-      <c r="N17" s="77" t="s">
+      <c r="N17" s="74" t="s">
         <v>73</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="77" t="s">
+      <c r="P17" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -4205,10 +4201,10 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E18" s="26"/>
@@ -4221,23 +4217,23 @@
       <c r="J18" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K18" s="117" t="s">
         <v>205</v>
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="55">
         <v>24</v>
       </c>
-      <c r="N18" s="77" t="s">
+      <c r="N18" s="74" t="s">
         <v>73</v>
       </c>
       <c r="O18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="77" t="s">
+      <c r="P18" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="77" t="s">
+      <c r="Q18" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R18" s="35"/>
@@ -4246,10 +4242,10 @@
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>250</v>
       </c>
       <c r="E19" s="26"/>
@@ -4262,23 +4258,23 @@
       <c r="J19" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="120" t="s">
+      <c r="K19" s="117" t="s">
         <v>206</v>
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="55">
         <v>25</v>
       </c>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="77" t="s">
+      <c r="O19" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="77" t="s">
+      <c r="P19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="35"/>
@@ -4287,10 +4283,10 @@
       <c r="B20" s="43">
         <v>12</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>250</v>
       </c>
       <c r="E20" s="26"/>
@@ -4303,23 +4299,23 @@
       <c r="J20" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="120" t="s">
+      <c r="K20" s="117" t="s">
         <v>207</v>
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="55">
         <v>24</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="77" t="s">
+      <c r="O20" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="77" t="s">
+      <c r="P20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="35"/>
@@ -4328,10 +4324,10 @@
       <c r="B21" s="43">
         <v>13</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>250</v>
       </c>
       <c r="E21" s="26"/>
@@ -4344,23 +4340,23 @@
       <c r="J21" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="120" t="s">
+      <c r="K21" s="117" t="s">
         <v>208</v>
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="56">
         <v>25</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="77" t="s">
+      <c r="P21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="35"/>
@@ -4369,10 +4365,10 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="74" t="s">
         <v>251</v>
       </c>
       <c r="E22" s="26"/>
@@ -4385,64 +4381,64 @@
       <c r="J22" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="117" t="s">
         <v>198</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="56">
         <v>24</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="77" t="s">
+      <c r="P22" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="77" t="s">
+      <c r="Q22" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="35"/>
     </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
       <c r="G23" s="62"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="58">
+      <c r="I23" s="57">
         <v>34</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="134" t="s">
+      <c r="K23" s="117" t="s">
         <v>209</v>
       </c>
       <c r="L23" s="59"/>
       <c r="M23" s="56">
         <v>25</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="N23" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="77" t="s">
+      <c r="O23" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="77" t="s">
+      <c r="P23" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="35"/>
@@ -4451,62 +4447,80 @@
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="44"/>
       <c r="G24" s="62"/>
-      <c r="H24" s="38"/>
-      <c r="L24" s="38"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="57">
+        <v>35</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="59"/>
       <c r="M24" s="56">
         <v>24</v>
       </c>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="77" t="s">
+      <c r="Q24" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="35"/>
     </row>
-    <row r="25" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
       <c r="G25" s="62"/>
-      <c r="H25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="58">
+        <v>36</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="59"/>
       <c r="M25" s="56">
         <v>24</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="77" t="s">
+      <c r="O25" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="77" t="s">
+      <c r="P25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="77" t="s">
+      <c r="Q25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="35"/>
@@ -4515,10 +4529,10 @@
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E26" s="26"/>
@@ -4532,25 +4546,25 @@
       <c r="N26" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="35"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78">
+      <c r="B27" s="75">
         <v>19</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="74" t="s">
         <v>252</v>
       </c>
       <c r="E27" s="42"/>
@@ -4561,16 +4575,16 @@
       <c r="M27" s="56">
         <v>24</v>
       </c>
-      <c r="N27" s="77" t="s">
+      <c r="N27" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="77" t="s">
+      <c r="O27" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="P27" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="77" t="s">
+      <c r="P27" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="35"/>
@@ -4580,16 +4594,16 @@
       <c r="M28" s="56">
         <v>24</v>
       </c>
-      <c r="N28" s="77" t="s">
+      <c r="N28" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O28" s="77" t="s">
+      <c r="O28" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="P28" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="77" t="s">
+      <c r="P28" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R28" s="35"/>
@@ -4599,16 +4613,16 @@
       <c r="M29" s="56">
         <v>24</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="O29" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="77" t="s">
+      <c r="P29" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R29" s="35"/>
@@ -4618,95 +4632,95 @@
       <c r="M30" s="56">
         <v>24</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="77" t="s">
+      <c r="P30" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R30" s="35"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L31" s="38"/>
-      <c r="M31" s="85">
+      <c r="M31" s="82">
         <v>26</v>
       </c>
-      <c r="N31" s="83" t="s">
+      <c r="N31" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="83" t="s">
+      <c r="O31" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="83" t="s">
+      <c r="P31" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="86"/>
+      <c r="Q31" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L32" s="38"/>
-      <c r="M32" s="87">
+      <c r="M32" s="84">
         <v>26</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="83" t="s">
+      <c r="O32" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="83" t="s">
+      <c r="P32" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="Q32" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="86"/>
+      <c r="Q32" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="83"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L33" s="38"/>
       <c r="M33" s="56">
         <v>4</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P33" s="77" t="s">
+      <c r="P33" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="77" t="s">
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="35"/>
     </row>
     <row r="34" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L34" s="39"/>
-      <c r="M34" s="99">
+      <c r="M34" s="96">
         <v>15</v>
       </c>
-      <c r="N34" s="100" t="s">
+      <c r="N34" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="O34" s="101" t="s">
+      <c r="O34" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="100" t="s">
+      <c r="P34" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="90"/>
+      <c r="Q34" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="87"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="67"/>
@@ -4716,16 +4730,16 @@
       <c r="N35" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="O35" s="84" t="s">
+      <c r="O35" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="84" t="s">
+      <c r="P35" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="84" t="s">
+      <c r="Q35" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="119" t="s">
+      <c r="R35" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4737,16 +4751,16 @@
       <c r="N36" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P36" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="77" t="s">
+      <c r="P36" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="120" t="s">
+      <c r="R36" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4758,13 +4772,13 @@
       <c r="N37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="33"/>
@@ -4777,13 +4791,13 @@
       <c r="N38" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O38" s="77" t="s">
+      <c r="O38" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P38" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="77" t="s">
+      <c r="P38" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
@@ -4796,13 +4810,13 @@
       <c r="N39" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O39" s="77" t="s">
+      <c r="O39" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P39" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="77" t="s">
+      <c r="P39" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R39" s="33"/>
@@ -4815,13 +4829,13 @@
       <c r="N40" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O40" s="77" t="s">
+      <c r="O40" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P40" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="77" t="s">
+      <c r="P40" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R40" s="33"/>
@@ -4834,13 +4848,13 @@
       <c r="N41" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O41" s="77" t="s">
+      <c r="O41" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="77" t="s">
+      <c r="P41" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="77" t="s">
+      <c r="Q41" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R41" s="33"/>
@@ -4853,13 +4867,13 @@
       <c r="N42" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O42" s="77" t="s">
+      <c r="O42" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P42" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="77" t="s">
+      <c r="P42" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
@@ -4872,13 +4886,13 @@
       <c r="N43" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="77" t="s">
+      <c r="O43" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P43" s="77" t="s">
+      <c r="P43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="77" t="s">
+      <c r="Q43" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
@@ -4891,35 +4905,35 @@
       <c r="N44" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="O44" s="77" t="s">
+      <c r="O44" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P44" s="77" t="s">
+      <c r="P44" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q44" s="77" t="s">
+      <c r="Q44" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
     </row>
     <row r="45" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L45" s="39"/>
-      <c r="M45" s="106">
-        <v>24</v>
-      </c>
-      <c r="N45" s="107" t="s">
+      <c r="M45" s="103">
+        <v>36</v>
+      </c>
+      <c r="N45" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="O45" s="108" t="s">
+      <c r="O45" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="108" t="s">
+      <c r="P45" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="109"/>
+      <c r="Q45" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="106"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="67"/>
@@ -4929,16 +4943,16 @@
       <c r="N46" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="O46" s="84" t="s">
+      <c r="O46" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P46" s="84" t="s">
+      <c r="P46" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="84" t="s">
+      <c r="Q46" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R46" s="119" t="s">
+      <c r="R46" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4950,16 +4964,16 @@
       <c r="N47" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O47" s="77" t="s">
+      <c r="O47" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P47" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="77" t="s">
+      <c r="P47" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R47" s="120" t="s">
+      <c r="R47" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4971,13 +4985,13 @@
       <c r="N48" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O48" s="77" t="s">
+      <c r="O48" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="77" t="s">
+      <c r="P48" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="77" t="s">
+      <c r="Q48" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="33"/>
@@ -4990,13 +5004,13 @@
       <c r="N49" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O49" s="77" t="s">
+      <c r="O49" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P49" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="77" t="s">
+      <c r="P49" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R49" s="33"/>
@@ -5009,13 +5023,13 @@
       <c r="N50" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O50" s="77" t="s">
+      <c r="O50" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P50" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="77" t="s">
+      <c r="P50" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R50" s="33"/>
@@ -5028,13 +5042,13 @@
       <c r="N51" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O51" s="77" t="s">
+      <c r="O51" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="77" t="s">
+      <c r="P51" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="33"/>
@@ -5047,13 +5061,13 @@
       <c r="N52" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O52" s="77" t="s">
+      <c r="O52" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P52" s="77" t="s">
+      <c r="P52" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="77" t="s">
+      <c r="Q52" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="33"/>
@@ -5066,13 +5080,13 @@
       <c r="N53" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O53" s="77" t="s">
+      <c r="O53" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P53" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" s="77" t="s">
+      <c r="P53" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R53" s="33"/>
@@ -5085,13 +5099,13 @@
       <c r="N54" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O54" s="77" t="s">
+      <c r="O54" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P54" s="77" t="s">
+      <c r="P54" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="77" t="s">
+      <c r="Q54" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R54" s="33"/>
@@ -5104,35 +5118,35 @@
       <c r="N55" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="O55" s="77" t="s">
+      <c r="O55" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P55" s="77" t="s">
+      <c r="P55" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q55" s="77" t="s">
+      <c r="Q55" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R55" s="33"/>
     </row>
     <row r="56" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L56" s="39"/>
-      <c r="M56" s="106">
-        <v>24</v>
-      </c>
-      <c r="N56" s="107" t="s">
+      <c r="M56" s="103">
+        <v>36</v>
+      </c>
+      <c r="N56" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="O56" s="108" t="s">
+      <c r="O56" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="108" t="s">
+      <c r="P56" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q56" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="113"/>
+      <c r="Q56" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="110"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L57" s="67"/>
@@ -5142,16 +5156,16 @@
       <c r="N57" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="O57" s="84" t="s">
+      <c r="O57" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="P57" s="84" t="s">
+      <c r="P57" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="84" t="s">
+      <c r="Q57" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R57" s="119" t="s">
+      <c r="R57" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5163,16 +5177,16 @@
       <c r="N58" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O58" s="77" t="s">
+      <c r="O58" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="P58" s="77" t="s">
+      <c r="P58" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="77" t="s">
+      <c r="Q58" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="120" t="s">
+      <c r="R58" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5184,16 +5198,16 @@
       <c r="N59" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O59" s="77" t="s">
+      <c r="O59" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="P59" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="77" t="s">
+      <c r="P59" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="120" t="s">
+      <c r="R59" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5205,16 +5219,16 @@
       <c r="N60" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O60" s="77" t="s">
+      <c r="O60" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P60" s="77" t="s">
+      <c r="P60" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q60" s="77" t="s">
+      <c r="Q60" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R60" s="120" t="s">
+      <c r="R60" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5226,13 +5240,13 @@
       <c r="N61" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O61" s="77" t="s">
+      <c r="O61" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="P61" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="77" t="s">
+      <c r="P61" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="33"/>
@@ -5245,13 +5259,13 @@
       <c r="N62" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O62" s="77" t="s">
+      <c r="O62" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="77" t="s">
+      <c r="P62" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="77" t="s">
+      <c r="Q62" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R62" s="33"/>
@@ -5264,13 +5278,13 @@
       <c r="N63" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O63" s="77" t="s">
+      <c r="O63" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="P63" s="77" t="s">
+      <c r="P63" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="77" t="s">
+      <c r="Q63" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R63" s="33"/>
@@ -5283,13 +5297,13 @@
       <c r="N64" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O64" s="77" t="s">
+      <c r="O64" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="P64" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q64" s="77" t="s">
+      <c r="P64" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R64" s="33"/>
@@ -5302,13 +5316,13 @@
       <c r="N65" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O65" s="77" t="s">
+      <c r="O65" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="P65" s="77" t="s">
+      <c r="P65" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="Q65" s="77" t="s">
+      <c r="Q65" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R65" s="33"/>
@@ -5321,13 +5335,13 @@
       <c r="N66" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="77" t="s">
+      <c r="O66" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="P66" s="77" t="s">
+      <c r="P66" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="Q66" s="77" t="s">
+      <c r="Q66" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R66" s="33"/>
@@ -5340,13 +5354,13 @@
       <c r="N67" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="88" t="s">
+      <c r="O67" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="P67" s="88" t="s">
+      <c r="P67" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="88" t="s">
+      <c r="Q67" s="85" t="s">
         <v>20</v>
       </c>
       <c r="R67" s="34"/>
@@ -5372,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5410,26 +5424,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -5442,11 +5456,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -5459,11 +5473,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5475,29 +5489,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5552,10 +5566,10 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
@@ -5567,10 +5581,10 @@
       <c r="I9" s="66">
         <v>16</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>211</v>
       </c>
       <c r="L9" s="64"/>
@@ -5580,16 +5594,16 @@
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5597,10 +5611,10 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
@@ -5615,7 +5629,7 @@
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="117" t="s">
         <v>212</v>
       </c>
       <c r="L10" s="64"/>
@@ -5640,10 +5654,10 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E11" s="37"/>
@@ -5656,7 +5670,7 @@
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>210</v>
       </c>
       <c r="L11" s="64"/>
@@ -5681,10 +5695,10 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="37"/>
@@ -5701,7 +5715,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>11</v>
       </c>
       <c r="N12" s="68" t="s">
@@ -5716,16 +5730,16 @@
       <c r="Q12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E13" s="26"/>
@@ -5738,11 +5752,11 @@
       <c r="J13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>213</v>
       </c>
       <c r="L13" s="59"/>
-      <c r="M13" s="91">
+      <c r="M13" s="88">
         <v>16</v>
       </c>
       <c r="N13" s="50" t="s">
@@ -5757,7 +5771,7 @@
       <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="118" t="s">
+      <c r="R13" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5765,10 +5779,10 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E14" s="26"/>
@@ -5781,7 +5795,7 @@
       <c r="J14" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="120" t="s">
+      <c r="K14" s="117" t="s">
         <v>214</v>
       </c>
       <c r="L14" s="59"/>
@@ -5806,10 +5820,10 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E15" s="26"/>
@@ -5822,7 +5836,7 @@
       <c r="J15" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="117" t="s">
         <v>215</v>
       </c>
       <c r="L15" s="59"/>
@@ -5847,10 +5861,10 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E16" s="26"/>
@@ -5866,8 +5880,8 @@
       <c r="K16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="112"/>
-      <c r="M16" s="89">
+      <c r="L16" s="109"/>
+      <c r="M16" s="86">
         <v>20</v>
       </c>
       <c r="N16" s="68" t="s">
@@ -5882,48 +5896,48 @@
       <c r="Q16" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="90"/>
-    </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="87"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>255</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
       <c r="G17" s="62"/>
       <c r="H17" s="53"/>
-      <c r="I17" s="58">
-        <v>24</v>
-      </c>
-      <c r="J17" s="42" t="s">
+      <c r="I17" s="57">
+        <v>24</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="134" t="s">
+      <c r="K17" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="117"/>
+      <c r="L17" s="114"/>
       <c r="M17" s="66">
         <v>16</v>
       </c>
-      <c r="N17" s="84" t="s">
+      <c r="N17" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O17" s="84" t="s">
+      <c r="O17" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="84" t="s">
+      <c r="P17" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="84" t="s">
+      <c r="Q17" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="119" t="s">
+      <c r="R17" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5931,64 +5945,82 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
       <c r="G18" s="62"/>
-      <c r="H18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57">
+        <v>25</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="59"/>
       <c r="M18" s="57">
         <v>21</v>
       </c>
-      <c r="N18" s="77" t="s">
+      <c r="N18" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="77" t="s">
+      <c r="O18" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="77" t="s">
+      <c r="P18" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="117" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>256</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
       <c r="G19" s="62"/>
-      <c r="H19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="58">
+        <v>26</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="59"/>
       <c r="M19" s="57">
         <v>15</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="77" t="s">
+      <c r="O19" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="77" t="s">
+      <c r="P19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="77" t="s">
+      <c r="Q19" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R19" s="33"/>
@@ -5997,10 +6029,10 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="26"/>
@@ -6011,16 +6043,16 @@
       <c r="M20" s="57">
         <v>19</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="77" t="s">
+      <c r="O20" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P20" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="77" t="s">
+      <c r="P20" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="33"/>
@@ -6029,10 +6061,10 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E21" s="26"/>
@@ -6043,16 +6075,16 @@
       <c r="M21" s="57">
         <v>22</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P21" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="77" t="s">
+      <c r="P21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -6061,10 +6093,10 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E22" s="26"/>
@@ -6075,28 +6107,28 @@
       <c r="M22" s="57">
         <v>19</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P22" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="77" t="s">
+      <c r="P22" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78">
+      <c r="B23" s="75">
         <v>15</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>247</v>
       </c>
       <c r="E23" s="42"/>
@@ -6107,16 +6139,16 @@
       <c r="M23" s="57">
         <v>19</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="N23" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="77" t="s">
+      <c r="O23" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="77" t="s">
+      <c r="P23" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="77" t="s">
+      <c r="Q23" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
@@ -6126,16 +6158,16 @@
       <c r="M24" s="57">
         <v>19</v>
       </c>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="77" t="s">
+      <c r="P24" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
@@ -6145,16 +6177,16 @@
       <c r="M25" s="57">
         <v>23</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="77" t="s">
+      <c r="O25" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="77" t="s">
+      <c r="P25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="77" t="s">
+      <c r="Q25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
@@ -6164,57 +6196,57 @@
       <c r="M26" s="57">
         <v>12</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L27" s="39"/>
-      <c r="M27" s="102">
-        <v>23</v>
-      </c>
-      <c r="N27" s="104" t="s">
+      <c r="M27" s="99">
+        <v>26</v>
+      </c>
+      <c r="N27" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="104" t="s">
+      <c r="O27" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="104" t="s">
+      <c r="P27" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="105"/>
+      <c r="Q27" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="102"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L28" s="67"/>
       <c r="M28" s="66">
         <v>16</v>
       </c>
-      <c r="N28" s="84" t="s">
+      <c r="N28" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="84" t="s">
+      <c r="O28" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="84" t="s">
+      <c r="P28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="84" t="s">
+      <c r="Q28" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="119" t="s">
+      <c r="R28" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6223,19 +6255,19 @@
       <c r="M29" s="57">
         <v>24</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="O29" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="77" t="s">
+      <c r="P29" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="120" t="s">
+      <c r="R29" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6244,16 +6276,16 @@
       <c r="M30" s="57">
         <v>15</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="77" t="s">
+      <c r="P30" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="77" t="s">
+      <c r="Q30" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
@@ -6263,16 +6295,16 @@
       <c r="M31" s="57">
         <v>19</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="77" t="s">
+      <c r="P31" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
@@ -6282,16 +6314,16 @@
       <c r="M32" s="57">
         <v>22</v>
       </c>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="77" t="s">
+      <c r="P32" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
@@ -6301,16 +6333,16 @@
       <c r="M33" s="57">
         <v>19</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="77" t="s">
+      <c r="P33" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
@@ -6320,16 +6352,16 @@
       <c r="M34" s="57">
         <v>19</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="77" t="s">
+      <c r="P34" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="77" t="s">
+      <c r="Q34" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
@@ -6339,16 +6371,16 @@
       <c r="M35" s="57">
         <v>19</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="77" t="s">
+      <c r="P35" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
@@ -6358,16 +6390,16 @@
       <c r="M36" s="57">
         <v>23</v>
       </c>
-      <c r="N36" s="77" t="s">
+      <c r="N36" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="77" t="s">
+      <c r="P36" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="77" t="s">
+      <c r="Q36" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -6377,38 +6409,38 @@
       <c r="M37" s="57">
         <v>13</v>
       </c>
-      <c r="N37" s="77" t="s">
+      <c r="N37" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="102">
-        <v>23</v>
-      </c>
-      <c r="N38" s="104" t="s">
+      <c r="M38" s="99">
+        <v>26</v>
+      </c>
+      <c r="N38" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="104" t="s">
+      <c r="O38" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="104" t="s">
+      <c r="P38" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="105"/>
+      <c r="Q38" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6431,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6469,26 +6501,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -6501,11 +6533,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -6518,11 +6550,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6534,29 +6566,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6614,7 +6646,7 @@
       <c r="C9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
@@ -6626,10 +6658,10 @@
       <c r="I9" s="66">
         <v>13</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>218</v>
       </c>
       <c r="L9" s="64"/>
@@ -6639,16 +6671,16 @@
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6659,7 +6691,7 @@
       <c r="C10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
@@ -6674,7 +6706,7 @@
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="117" t="s">
         <v>219</v>
       </c>
       <c r="L10" s="64"/>
@@ -6702,7 +6734,7 @@
       <c r="C11" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E11" s="37"/>
@@ -6715,7 +6747,7 @@
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>217</v>
       </c>
       <c r="L11" s="64"/>
@@ -6743,7 +6775,7 @@
       <c r="C12" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E12" s="37"/>
@@ -6756,11 +6788,11 @@
       <c r="J12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="117" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>8</v>
       </c>
       <c r="N12" s="68" t="s">
@@ -6775,7 +6807,7 @@
       <c r="Q12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
@@ -6784,7 +6816,7 @@
       <c r="C13" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E13" s="26"/>
@@ -6797,26 +6829,26 @@
       <c r="J13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="93">
+      <c r="L13" s="114"/>
+      <c r="M13" s="90">
         <v>13</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="84" t="s">
+      <c r="O13" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="84" t="s">
+      <c r="P13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="118" t="s">
+      <c r="R13" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6827,7 +6859,7 @@
       <c r="C14" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E14" s="26"/>
@@ -6840,23 +6872,23 @@
       <c r="J14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="120" t="s">
+      <c r="K14" s="117" t="s">
         <v>221</v>
       </c>
       <c r="L14" s="59"/>
-      <c r="M14" s="94">
+      <c r="M14" s="91">
         <v>17</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="77" t="s">
+      <c r="O14" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="77" t="s">
+      <c r="P14" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -6868,7 +6900,7 @@
       <c r="C15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>257</v>
       </c>
       <c r="E15" s="26"/>
@@ -6881,23 +6913,23 @@
       <c r="J15" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="117" t="s">
         <v>222</v>
       </c>
       <c r="L15" s="59"/>
-      <c r="M15" s="94">
+      <c r="M15" s="91">
         <v>3</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="73" t="s">
+      <c r="P15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="Q15" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -6909,7 +6941,7 @@
       <c r="C16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>256</v>
       </c>
       <c r="E16" s="26"/>
@@ -6922,11 +6954,11 @@
       <c r="J16" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="117" t="s">
         <v>223</v>
       </c>
       <c r="L16" s="59"/>
-      <c r="M16" s="94">
+      <c r="M16" s="91">
         <v>4</v>
       </c>
       <c r="N16" s="37" t="s">
@@ -6935,10 +6967,10 @@
       <c r="O16" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="77" t="s">
+      <c r="P16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="77" t="s">
+      <c r="Q16" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -6950,39 +6982,39 @@
       <c r="C17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
       <c r="G17" s="62"/>
       <c r="H17" s="53"/>
-      <c r="I17" s="58">
+      <c r="I17" s="57">
         <v>21</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="72">
+      <c r="L17" s="109"/>
+      <c r="M17" s="69">
         <v>5</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="100" t="s">
+      <c r="P17" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="113"/>
+      <c r="Q17" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="110"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
@@ -6991,69 +7023,87 @@
       <c r="C18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
       <c r="G18" s="62"/>
-      <c r="H18" s="38"/>
-      <c r="L18" s="67"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57">
+        <v>22</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="114"/>
       <c r="M18" s="66">
         <v>13</v>
       </c>
-      <c r="N18" s="84" t="s">
+      <c r="N18" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="84" t="s">
+      <c r="O18" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="84" t="s">
+      <c r="P18" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="84" t="s">
+      <c r="Q18" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="116" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>11</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
       <c r="G19" s="62"/>
-      <c r="H19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="58">
+        <v>23</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="59"/>
       <c r="M19" s="57">
         <v>18</v>
       </c>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="77" t="s">
+      <c r="O19" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P19" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="77" t="s">
+      <c r="P19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="117" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78">
+      <c r="B20" s="75">
         <v>12</v>
       </c>
       <c r="C20" s="52" t="s">
@@ -7070,16 +7120,16 @@
       <c r="M20" s="57">
         <v>12</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="77" t="s">
+      <c r="O20" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="77" t="s">
+      <c r="P20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="33"/>
@@ -7089,16 +7139,16 @@
       <c r="M21" s="57">
         <v>16</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="77" t="s">
+      <c r="P21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -7108,16 +7158,16 @@
       <c r="M22" s="57">
         <v>20</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="77" t="s">
+      <c r="P22" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
@@ -7127,16 +7177,16 @@
       <c r="M23" s="57">
         <v>16</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="N23" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="77" t="s">
+      <c r="O23" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="77" t="s">
+      <c r="P23" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
@@ -7146,16 +7196,16 @@
       <c r="M24" s="57">
         <v>16</v>
       </c>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="77" t="s">
+      <c r="Q24" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
@@ -7165,16 +7215,16 @@
       <c r="M25" s="57">
         <v>16</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="77" t="s">
+      <c r="O25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="77" t="s">
+      <c r="P25" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
@@ -7184,16 +7234,16 @@
       <c r="M26" s="57">
         <v>21</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
@@ -7203,57 +7253,57 @@
       <c r="M27" s="57">
         <v>9</v>
       </c>
-      <c r="N27" s="77" t="s">
+      <c r="N27" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="77" t="s">
+      <c r="O27" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="77" t="s">
+      <c r="P27" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="77" t="s">
+      <c r="Q27" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
-      <c r="M28" s="106">
-        <v>21</v>
-      </c>
-      <c r="N28" s="108" t="s">
+      <c r="M28" s="103">
+        <v>23</v>
+      </c>
+      <c r="N28" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="108" t="s">
+      <c r="O28" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="108" t="s">
+      <c r="P28" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="109"/>
+      <c r="Q28" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="106"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="115"/>
+      <c r="L29" s="112"/>
       <c r="M29" s="66">
         <v>13</v>
       </c>
-      <c r="N29" s="84" t="s">
+      <c r="N29" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="84" t="s">
+      <c r="O29" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="84" t="s">
+      <c r="P29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="84" t="s">
+      <c r="Q29" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="119" t="s">
+      <c r="R29" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7262,19 +7312,19 @@
       <c r="M30" s="57">
         <v>19</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="77" t="s">
+      <c r="P30" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="120" t="s">
+      <c r="R30" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7283,16 +7333,16 @@
       <c r="M31" s="57">
         <v>12</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="77" t="s">
+      <c r="P31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="77" t="s">
+      <c r="Q31" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R31" s="33"/>
@@ -7302,16 +7352,16 @@
       <c r="M32" s="57">
         <v>16</v>
       </c>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="77" t="s">
+      <c r="P32" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
@@ -7321,16 +7371,16 @@
       <c r="M33" s="57">
         <v>20</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="77" t="s">
+      <c r="P33" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
@@ -7340,16 +7390,16 @@
       <c r="M34" s="57">
         <v>16</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="77" t="s">
+      <c r="P34" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
@@ -7359,16 +7409,16 @@
       <c r="M35" s="57">
         <v>16</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="77" t="s">
+      <c r="P35" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="77" t="s">
+      <c r="Q35" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
@@ -7378,16 +7428,16 @@
       <c r="M36" s="57">
         <v>16</v>
       </c>
-      <c r="N36" s="77" t="s">
+      <c r="N36" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P36" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="77" t="s">
+      <c r="P36" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -7397,16 +7447,16 @@
       <c r="M37" s="57">
         <v>21</v>
       </c>
-      <c r="N37" s="77" t="s">
+      <c r="N37" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
@@ -7416,38 +7466,38 @@
       <c r="M38" s="57">
         <v>10</v>
       </c>
-      <c r="N38" s="77" t="s">
+      <c r="N38" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="77" t="s">
+      <c r="O38" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="77" t="s">
+      <c r="P38" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="77" t="s">
+      <c r="Q38" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
     </row>
     <row r="39" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L39" s="92"/>
-      <c r="M39" s="102">
-        <v>21</v>
-      </c>
-      <c r="N39" s="104" t="s">
+      <c r="L39" s="89"/>
+      <c r="M39" s="99">
+        <v>23</v>
+      </c>
+      <c r="N39" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="104" t="s">
+      <c r="O39" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="104" t="s">
+      <c r="P39" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="105"/>
+      <c r="Q39" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7470,8 +7520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7508,26 +7558,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -7540,11 +7590,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -7557,11 +7607,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7573,29 +7623,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7650,10 +7700,10 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
@@ -7663,10 +7713,10 @@
       <c r="I9" s="66">
         <v>10</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>225</v>
       </c>
       <c r="L9" s="64"/>
@@ -7676,16 +7726,16 @@
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="R9" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7693,10 +7743,10 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
@@ -7709,7 +7759,7 @@
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="117" t="s">
         <v>226</v>
       </c>
       <c r="L10" s="64"/>
@@ -7734,10 +7784,10 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E11" s="37"/>
@@ -7750,7 +7800,7 @@
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>224</v>
       </c>
       <c r="L11" s="64"/>
@@ -7775,10 +7825,10 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E12" s="37"/>
@@ -7791,11 +7841,11 @@
       <c r="J12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="117" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>6</v>
       </c>
       <c r="N12" s="68" t="s">
@@ -7810,16 +7860,16 @@
       <c r="Q12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>255</v>
       </c>
       <c r="E13" s="26"/>
@@ -7832,26 +7882,26 @@
       <c r="J13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="93">
+      <c r="L13" s="114"/>
+      <c r="M13" s="90">
         <v>10</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="84" t="s">
+      <c r="O13" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="84" t="s">
+      <c r="P13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="118" t="s">
+      <c r="R13" s="115" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7859,10 +7909,10 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="26"/>
@@ -7875,23 +7925,23 @@
       <c r="J14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="120" t="s">
+      <c r="K14" s="117" t="s">
         <v>228</v>
       </c>
       <c r="L14" s="59"/>
-      <c r="M14" s="94">
+      <c r="M14" s="91">
         <v>14</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="77" t="s">
+      <c r="O14" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="77" t="s">
+      <c r="P14" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -7900,10 +7950,10 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E15" s="26"/>
@@ -7916,23 +7966,23 @@
       <c r="J15" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="117" t="s">
         <v>229</v>
       </c>
       <c r="L15" s="59"/>
-      <c r="M15" s="94">
+      <c r="M15" s="91">
         <v>4</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="73" t="s">
+      <c r="P15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="Q15" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -7941,10 +7991,10 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="26"/>
@@ -7957,11 +8007,11 @@
       <c r="J16" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="117" t="s">
         <v>230</v>
       </c>
       <c r="L16" s="59"/>
-      <c r="M16" s="94">
+      <c r="M16" s="91">
         <v>3</v>
       </c>
       <c r="N16" s="37" t="s">
@@ -7970,16 +8020,16 @@
       <c r="O16" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="77" t="s">
+      <c r="P16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="77" t="s">
+      <c r="Q16" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78">
+      <c r="B17" s="75">
         <v>9</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -7988,76 +8038,94 @@
       <c r="D17" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="58">
+      <c r="E17" s="94"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="57">
         <v>18</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="72">
+      <c r="L17" s="109"/>
+      <c r="M17" s="69">
         <v>5</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="100" t="s">
+      <c r="P17" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="113"/>
+      <c r="Q17" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="110"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="67"/>
+      <c r="I18" s="57">
+        <v>19</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="114"/>
       <c r="M18" s="66">
         <v>10</v>
       </c>
-      <c r="N18" s="84" t="s">
+      <c r="N18" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O18" s="84" t="s">
+      <c r="O18" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="84" t="s">
+      <c r="P18" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="84" t="s">
+      <c r="Q18" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="116" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="38"/>
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="58">
+        <v>20</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="59"/>
       <c r="M19" s="57">
         <v>15</v>
       </c>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="77" t="s">
+      <c r="O19" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P19" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="77" t="s">
+      <c r="P19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8066,16 +8134,16 @@
       <c r="M20" s="57">
         <v>9</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O20" s="77" t="s">
+      <c r="O20" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="77" t="s">
+      <c r="P20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="33"/>
@@ -8085,16 +8153,16 @@
       <c r="M21" s="57">
         <v>13</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="77" t="s">
+      <c r="P21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -8104,16 +8172,16 @@
       <c r="M22" s="57">
         <v>17</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="77" t="s">
+      <c r="P22" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
@@ -8123,16 +8191,16 @@
       <c r="M23" s="57">
         <v>13</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="N23" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="77" t="s">
+      <c r="O23" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="77" t="s">
+      <c r="P23" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
@@ -8142,16 +8210,16 @@
       <c r="M24" s="57">
         <v>13</v>
       </c>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="77" t="s">
+      <c r="Q24" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
@@ -8161,16 +8229,16 @@
       <c r="M25" s="57">
         <v>13</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="77" t="s">
+      <c r="O25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="77" t="s">
+      <c r="P25" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
@@ -8180,16 +8248,16 @@
       <c r="M26" s="57">
         <v>18</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
@@ -8199,57 +8267,57 @@
       <c r="M27" s="57">
         <v>7</v>
       </c>
-      <c r="N27" s="77" t="s">
+      <c r="N27" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="77" t="s">
+      <c r="O27" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="77" t="s">
+      <c r="P27" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="77" t="s">
+      <c r="Q27" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
-      <c r="M28" s="58">
-        <v>18</v>
-      </c>
-      <c r="N28" s="104" t="s">
+      <c r="M28" s="99">
+        <v>20</v>
+      </c>
+      <c r="N28" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="104" t="s">
+      <c r="O28" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="104" t="s">
+      <c r="P28" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="105"/>
+      <c r="Q28" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="102"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29" s="67"/>
       <c r="M29" s="66">
         <v>10</v>
       </c>
-      <c r="N29" s="114" t="s">
+      <c r="N29" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="114" t="s">
+      <c r="O29" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="114" t="s">
+      <c r="P29" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="114" t="s">
+      <c r="Q29" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="125" t="s">
+      <c r="R29" s="122" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8258,19 +8326,19 @@
       <c r="M30" s="57">
         <v>16</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="77" t="s">
+      <c r="P30" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="120" t="s">
+      <c r="R30" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8279,16 +8347,16 @@
       <c r="M31" s="57">
         <v>9</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="77" t="s">
+      <c r="P31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="77" t="s">
+      <c r="Q31" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R31" s="33"/>
@@ -8298,16 +8366,16 @@
       <c r="M32" s="57">
         <v>13</v>
       </c>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="77" t="s">
+      <c r="P32" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
@@ -8317,16 +8385,16 @@
       <c r="M33" s="57">
         <v>17</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="77" t="s">
+      <c r="P33" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
@@ -8336,16 +8404,16 @@
       <c r="M34" s="57">
         <v>13</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="77" t="s">
+      <c r="P34" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
@@ -8355,16 +8423,16 @@
       <c r="M35" s="57">
         <v>13</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="77" t="s">
+      <c r="P35" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="77" t="s">
+      <c r="Q35" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
@@ -8374,16 +8442,16 @@
       <c r="M36" s="57">
         <v>13</v>
       </c>
-      <c r="N36" s="77" t="s">
+      <c r="N36" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P36" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="77" t="s">
+      <c r="P36" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -8393,16 +8461,16 @@
       <c r="M37" s="57">
         <v>18</v>
       </c>
-      <c r="N37" s="77" t="s">
+      <c r="N37" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
@@ -8412,38 +8480,38 @@
       <c r="M38" s="57">
         <v>8</v>
       </c>
-      <c r="N38" s="77" t="s">
+      <c r="N38" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="77" t="s">
+      <c r="O38" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="77" t="s">
+      <c r="P38" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="77" t="s">
+      <c r="Q38" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="33"/>
     </row>
     <row r="39" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L39" s="39"/>
-      <c r="M39" s="58">
-        <v>18</v>
-      </c>
-      <c r="N39" s="104" t="s">
+      <c r="M39" s="99">
+        <v>20</v>
+      </c>
+      <c r="N39" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="104" t="s">
+      <c r="O39" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="104" t="s">
+      <c r="P39" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="105"/>
+      <c r="Q39" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8466,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8504,26 +8572,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -8536,11 +8604,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -8553,11 +8621,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8569,29 +8637,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8646,23 +8714,23 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="69">
+      <c r="G9" s="126"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
         <v>25</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>232</v>
       </c>
       <c r="L9" s="64"/>
@@ -8672,13 +8740,13 @@
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="51"/>
@@ -8687,23 +8755,23 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="70">
+      <c r="G10" s="127"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>26</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="117" t="s">
         <v>233</v>
       </c>
       <c r="L10" s="64"/>
@@ -8728,23 +8796,23 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="70">
+      <c r="G11" s="127"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>27</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>231</v>
       </c>
       <c r="L11" s="64"/>
@@ -8769,17 +8837,17 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="70">
+      <c r="G12" s="127"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>28</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -8789,7 +8857,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>29</v>
       </c>
       <c r="N12" s="68" t="s">
@@ -8804,7 +8872,7 @@
       <c r="Q12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
@@ -8813,96 +8881,96 @@
       <c r="C13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>250</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="70">
+      <c r="G13" s="128"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>29</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="91">
+      <c r="L13" s="95"/>
+      <c r="M13" s="88">
         <v>25</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="137" t="s">
+      <c r="O13" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="137" t="s">
+      <c r="P13" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="137" t="s">
+      <c r="Q13" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="118"/>
+      <c r="R13" s="115"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>258</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="70">
+      <c r="G14" s="128"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>30</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="120" t="s">
+      <c r="K14" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="76"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="55">
         <v>30</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="138" t="s">
+      <c r="O14" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="135"/>
+      <c r="P14" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="132"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="70">
+      <c r="G15" s="128"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>31</v>
       </c>
       <c r="J15" s="30" t="s">
@@ -8911,224 +8979,242 @@
       <c r="K15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="76"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="55">
         <v>28</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="138" t="s">
+      <c r="O15" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="135"/>
+      <c r="P15" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="132"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="70">
+      <c r="G16" s="128"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>32</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="L16" s="76"/>
+      <c r="L16" s="73"/>
       <c r="M16" s="55">
         <v>6</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="138" t="s">
+      <c r="O16" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="135"/>
+      <c r="P16" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="132"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="70">
+      <c r="G17" s="128"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="57">
         <v>33</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="120" t="s">
+      <c r="K17" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="76"/>
+      <c r="L17" s="73"/>
       <c r="M17" s="57">
         <v>7</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="138" t="s">
+      <c r="O17" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="138" t="s">
+      <c r="P17" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="120"/>
-    </row>
-    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="117"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="71">
+      <c r="G18" s="128"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57">
         <v>34</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="134" t="s">
+      <c r="K18" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="73"/>
       <c r="M18" s="57">
         <v>31</v>
       </c>
       <c r="N18" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="O18" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="120"/>
+      <c r="P18" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="117"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>259</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="38"/>
-      <c r="L19" s="53"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="57">
+        <v>35</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L19" s="73"/>
       <c r="M19" s="57">
         <v>31</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="138" t="s">
+      <c r="O19" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="120"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P19" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="117"/>
+    </row>
+    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="38"/>
-      <c r="L20" s="53"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="58">
+        <v>36</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L20" s="73"/>
       <c r="M20" s="57">
         <v>31</v>
       </c>
       <c r="N20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O20" s="138" t="s">
+      <c r="O20" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="120"/>
+      <c r="P20" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="117"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>260</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="131"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="38"/>
       <c r="L21" s="53"/>
       <c r="M21" s="57">
@@ -9137,30 +9223,30 @@
       <c r="N21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="138" t="s">
+      <c r="O21" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="138" t="s">
+      <c r="P21" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="120"/>
+      <c r="Q21" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="117"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="131"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="38"/>
       <c r="L22" s="53"/>
       <c r="M22" s="57">
@@ -9169,30 +9255,30 @@
       <c r="N22" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="138" t="s">
+      <c r="O22" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="120"/>
+      <c r="P22" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="117"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="131"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="38"/>
       <c r="L23" s="53"/>
       <c r="M23" s="57">
@@ -9201,30 +9287,30 @@
       <c r="N23" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="138" t="s">
+      <c r="O23" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="138" t="s">
+      <c r="P23" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="120"/>
+      <c r="Q23" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="117"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="131"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="38"/>
       <c r="L24" s="53"/>
       <c r="M24" s="57">
@@ -9233,30 +9319,30 @@
       <c r="N24" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="138" t="s">
+      <c r="O24" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="138" t="s">
+      <c r="P24" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="120"/>
+      <c r="Q24" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="117"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="74" t="s">
         <v>255</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="131"/>
+      <c r="G25" s="128"/>
       <c r="H25" s="38"/>
       <c r="L25" s="53"/>
       <c r="M25" s="57">
@@ -9265,30 +9351,30 @@
       <c r="N25" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="138" t="s">
+      <c r="O25" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="120"/>
+      <c r="P25" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="117"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="131"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="38"/>
       <c r="L26" s="53"/>
       <c r="M26" s="57">
@@ -9297,80 +9383,80 @@
       <c r="N26" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O26" s="138" t="s">
+      <c r="O26" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="120"/>
+      <c r="P26" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="117"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="131"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="38"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="116">
+      <c r="L27" s="89"/>
+      <c r="M27" s="113">
         <v>31</v>
       </c>
-      <c r="N27" s="101" t="s">
+      <c r="N27" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="P27" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="139" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="136"/>
+      <c r="P27" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="133"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>20</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="131"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="38"/>
       <c r="L28" s="67"/>
       <c r="M28" s="66">
         <v>25</v>
       </c>
-      <c r="N28" s="84" t="s">
+      <c r="N28" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="84" t="s">
+      <c r="O28" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="84" t="s">
+      <c r="P28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="84" t="s">
+      <c r="Q28" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="119" t="s">
+      <c r="R28" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9378,33 +9464,33 @@
       <c r="B29" s="25">
         <v>21</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="74" t="s">
         <v>261</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="131"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="57">
         <v>32</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="O29" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="77" t="s">
+      <c r="P29" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="120" t="s">
+      <c r="R29" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9412,30 +9498,30 @@
       <c r="B30" s="25">
         <v>22</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="131"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="57">
         <v>24</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="77" t="s">
+      <c r="P30" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="77" t="s">
+      <c r="Q30" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
@@ -9444,36 +9530,36 @@
       <c r="B31" s="25">
         <v>23</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="131"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="57">
         <v>28</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="77" t="s">
+      <c r="P31" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="78">
+      <c r="B32" s="75">
         <v>24</v>
       </c>
       <c r="C32" s="42" t="s">
@@ -9484,22 +9570,22 @@
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="45"/>
-      <c r="G32" s="132"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="39"/>
       <c r="L32" s="38"/>
       <c r="M32" s="57">
         <v>34</v>
       </c>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="77" t="s">
+      <c r="P32" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
@@ -9509,16 +9595,16 @@
       <c r="M33" s="57">
         <v>28</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="77" t="s">
+      <c r="P33" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
@@ -9528,16 +9614,16 @@
       <c r="M34" s="57">
         <v>28</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="77" t="s">
+      <c r="P34" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="77" t="s">
+      <c r="Q34" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
@@ -9547,16 +9633,16 @@
       <c r="M35" s="57">
         <v>28</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="77" t="s">
+      <c r="P35" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
@@ -9566,16 +9652,16 @@
       <c r="M36" s="57">
         <v>31</v>
       </c>
-      <c r="N36" s="77" t="s">
+      <c r="N36" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="77" t="s">
+      <c r="P36" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="77" t="s">
+      <c r="Q36" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -9585,57 +9671,57 @@
       <c r="M37" s="57">
         <v>8</v>
       </c>
-      <c r="N37" s="77" t="s">
+      <c r="N37" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="102">
-        <v>31</v>
-      </c>
-      <c r="N38" s="104" t="s">
+      <c r="M38" s="99">
+        <v>36</v>
+      </c>
+      <c r="N38" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="104" t="s">
+      <c r="O38" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="104" t="s">
+      <c r="P38" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="105"/>
+      <c r="Q38" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="102"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="67"/>
       <c r="M39" s="66">
         <v>25</v>
       </c>
-      <c r="N39" s="127" t="s">
+      <c r="N39" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="O39" s="114" t="s">
+      <c r="O39" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="114" t="s">
+      <c r="P39" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="114" t="s">
+      <c r="Q39" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="125" t="s">
+      <c r="R39" s="122" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9647,16 +9733,16 @@
       <c r="N40" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O40" s="77" t="s">
+      <c r="O40" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P40" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="77" t="s">
+      <c r="P40" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="120" t="s">
+      <c r="R40" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9668,13 +9754,13 @@
       <c r="N41" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O41" s="77" t="s">
+      <c r="O41" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="77" t="s">
+      <c r="P41" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="77" t="s">
+      <c r="Q41" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
@@ -9687,13 +9773,13 @@
       <c r="N42" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O42" s="77" t="s">
+      <c r="O42" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P42" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="77" t="s">
+      <c r="P42" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
@@ -9706,13 +9792,13 @@
       <c r="N43" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="77" t="s">
+      <c r="O43" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="77" t="s">
+      <c r="P43" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
@@ -9725,13 +9811,13 @@
       <c r="N44" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O44" s="77" t="s">
+      <c r="O44" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P44" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="77" t="s">
+      <c r="P44" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
@@ -9744,13 +9830,13 @@
       <c r="N45" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O45" s="77" t="s">
+      <c r="O45" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="77" t="s">
+      <c r="P45" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="77" t="s">
+      <c r="Q45" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
@@ -9763,13 +9849,13 @@
       <c r="N46" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O46" s="77" t="s">
+      <c r="O46" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P46" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="77" t="s">
+      <c r="P46" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
@@ -9782,13 +9868,13 @@
       <c r="N47" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O47" s="77" t="s">
+      <c r="O47" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="77" t="s">
+      <c r="P47" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="77" t="s">
+      <c r="Q47" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
@@ -9801,35 +9887,35 @@
       <c r="N48" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="O48" s="77" t="s">
+      <c r="O48" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P48" s="77" t="s">
+      <c r="P48" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q48" s="77" t="s">
+      <c r="Q48" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R48" s="33"/>
     </row>
     <row r="49" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L49" s="39"/>
-      <c r="M49" s="102">
-        <v>31</v>
-      </c>
-      <c r="N49" s="103" t="s">
+      <c r="M49" s="99">
+        <v>36</v>
+      </c>
+      <c r="N49" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="O49" s="104" t="s">
+      <c r="O49" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="104" t="s">
+      <c r="P49" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="105"/>
+      <c r="Q49" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9852,8 +9938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9890,26 +9976,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
       <c r="I3" s="26" t="s">
@@ -9922,11 +10008,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="7"/>
       <c r="H4" s="47"/>
       <c r="I4" s="42" t="s">
@@ -9939,11 +10025,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9955,29 +10041,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10032,23 +10118,23 @@
       <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="69">
+      <c r="G9" s="126"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="66">
         <v>17</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="72" t="s">
         <v>240</v>
       </c>
       <c r="L9" s="64"/>
@@ -10058,13 +10144,13 @@
       <c r="N9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="81" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="51"/>
@@ -10073,23 +10159,23 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="70">
+      <c r="G10" s="127"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="57">
         <v>18</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="117" t="s">
         <v>241</v>
       </c>
       <c r="L10" s="64"/>
@@ -10114,23 +10200,23 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="70">
+      <c r="G11" s="127"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="57">
         <v>19</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>239</v>
       </c>
       <c r="L11" s="64"/>
@@ -10155,17 +10241,17 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="70">
+      <c r="G12" s="127"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57">
         <v>20</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -10175,7 +10261,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>12</v>
       </c>
       <c r="N12" s="68" t="s">
@@ -10190,45 +10276,45 @@
       <c r="Q12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="70">
+      <c r="G13" s="128"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="57">
         <v>21</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="91">
+      <c r="L13" s="114"/>
+      <c r="M13" s="88">
         <v>17</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="96" t="s">
+      <c r="O13" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="96" t="s">
+      <c r="P13" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="96" t="s">
+      <c r="Q13" s="93" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="51"/>
@@ -10237,17 +10323,17 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="70">
+      <c r="G14" s="128"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="57">
         <v>22</v>
       </c>
       <c r="J14" s="30" t="s">
@@ -10263,13 +10349,13 @@
       <c r="N14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="95" t="s">
+      <c r="O14" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="95" t="s">
+      <c r="P14" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -10278,23 +10364,23 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>253</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="70">
+      <c r="G15" s="128"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="57">
         <v>23</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="117" t="s">
         <v>243</v>
       </c>
       <c r="L15" s="59"/>
@@ -10304,13 +10390,13 @@
       <c r="N15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="95" t="s">
+      <c r="O15" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="95" t="s">
+      <c r="P15" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -10319,23 +10405,23 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="70">
+      <c r="G16" s="128"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57">
         <v>24</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="117" t="s">
         <v>244</v>
       </c>
       <c r="L16" s="59"/>
@@ -10345,38 +10431,38 @@
       <c r="N16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="95" t="s">
+      <c r="P16" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>259</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="71">
+      <c r="G17" s="128"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="57">
         <v>25</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="134" t="s">
+      <c r="K17" s="117" t="s">
         <v>245</v>
       </c>
       <c r="L17" s="59"/>
@@ -10386,13 +10472,13 @@
       <c r="N17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="95" t="s">
+      <c r="P17" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="95" t="s">
+      <c r="Q17" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="33"/>
@@ -10401,62 +10487,80 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57">
+        <v>26</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="59"/>
       <c r="M18" s="57">
         <v>22</v>
       </c>
       <c r="N18" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="95" t="s">
+      <c r="O18" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="95" t="s">
+      <c r="P18" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R18" s="33"/>
     </row>
-    <row r="19" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="58">
+        <v>27</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="59"/>
       <c r="M19" s="57">
         <v>22</v>
       </c>
       <c r="N19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="95" t="s">
+      <c r="O19" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="95" t="s">
+      <c r="P19" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R19" s="33"/>
@@ -10465,15 +10569,15 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>256</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="131"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="57">
@@ -10482,13 +10586,13 @@
       <c r="N20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O20" s="95" t="s">
+      <c r="O20" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="95" t="s">
+      <c r="P20" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="33"/>
@@ -10497,15 +10601,15 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="131"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="57">
@@ -10514,13 +10618,13 @@
       <c r="N21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="O21" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="95" t="s">
+      <c r="P21" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="95" t="s">
+      <c r="Q21" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="33"/>
@@ -10529,15 +10633,15 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="131"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="57">
@@ -10546,13 +10650,13 @@
       <c r="N22" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="95" t="s">
+      <c r="O22" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="95" t="s">
+      <c r="P22" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="33"/>
@@ -10561,15 +10665,15 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>246</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="131"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="57">
@@ -10578,19 +10682,19 @@
       <c r="N23" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="95" t="s">
+      <c r="O23" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="95" t="s">
+      <c r="P23" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="95" t="s">
+      <c r="Q23" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="78">
+      <c r="B24" s="75">
         <v>16</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -10599,9 +10703,9 @@
       <c r="D24" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="133"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="130"/>
       <c r="H24" s="39"/>
       <c r="L24" s="38"/>
       <c r="M24" s="57">
@@ -10610,13 +10714,13 @@
       <c r="N24" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="95" t="s">
+      <c r="O24" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="95" t="s">
+      <c r="P24" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="95" t="s">
+      <c r="Q24" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="33"/>
@@ -10629,13 +10733,13 @@
       <c r="N25" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="95" t="s">
+      <c r="O25" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="95" t="s">
+      <c r="P25" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="33"/>
@@ -10648,54 +10752,54 @@
       <c r="N26" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O26" s="95" t="s">
+      <c r="O26" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="95" t="s">
+      <c r="P26" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="92" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L27" s="39"/>
-      <c r="M27" s="116">
+      <c r="M27" s="113">
         <v>22</v>
       </c>
-      <c r="N27" s="101" t="s">
+      <c r="N27" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="126" t="s">
+      <c r="O27" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="P27" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="113"/>
+      <c r="P27" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="110"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L28" s="67"/>
       <c r="M28" s="66">
         <v>17</v>
       </c>
-      <c r="N28" s="84" t="s">
+      <c r="N28" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="84" t="s">
+      <c r="O28" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="84" t="s">
+      <c r="P28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="84" t="s">
+      <c r="Q28" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="119" t="s">
+      <c r="R28" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10704,19 +10808,19 @@
       <c r="M29" s="57">
         <v>23</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="O29" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="77" t="s">
+      <c r="P29" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="120" t="s">
+      <c r="R29" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10725,16 +10829,16 @@
       <c r="M30" s="57">
         <v>16</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="77" t="s">
+      <c r="P30" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="77" t="s">
+      <c r="Q30" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="33"/>
@@ -10744,16 +10848,16 @@
       <c r="M31" s="57">
         <v>20</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O31" s="77" t="s">
+      <c r="O31" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P31" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="77" t="s">
+      <c r="P31" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="33"/>
@@ -10763,16 +10867,16 @@
       <c r="M32" s="57">
         <v>25</v>
       </c>
-      <c r="N32" s="77" t="s">
+      <c r="N32" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="77" t="s">
+      <c r="P32" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R32" s="33"/>
@@ -10782,16 +10886,16 @@
       <c r="M33" s="57">
         <v>20</v>
       </c>
-      <c r="N33" s="77" t="s">
+      <c r="N33" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="77" t="s">
+      <c r="P33" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R33" s="33"/>
@@ -10801,16 +10905,16 @@
       <c r="M34" s="57">
         <v>20</v>
       </c>
-      <c r="N34" s="77" t="s">
+      <c r="N34" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="77" t="s">
+      <c r="O34" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="77" t="s">
+      <c r="P34" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="77" t="s">
+      <c r="Q34" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R34" s="33"/>
@@ -10820,16 +10924,16 @@
       <c r="M35" s="57">
         <v>20</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="77" t="s">
+      <c r="O35" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P35" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="77" t="s">
+      <c r="P35" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R35" s="33"/>
@@ -10839,16 +10943,16 @@
       <c r="M36" s="57">
         <v>22</v>
       </c>
-      <c r="N36" s="77" t="s">
+      <c r="N36" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O36" s="77" t="s">
+      <c r="O36" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="77" t="s">
+      <c r="P36" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="77" t="s">
+      <c r="Q36" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -10858,57 +10962,57 @@
       <c r="M37" s="57">
         <v>13</v>
       </c>
-      <c r="N37" s="77" t="s">
+      <c r="N37" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P37" s="77" t="s">
+      <c r="P37" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q37" s="77" t="s">
+      <c r="Q37" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="33"/>
     </row>
     <row r="38" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="39"/>
-      <c r="M38" s="116">
-        <v>22</v>
-      </c>
-      <c r="N38" s="108" t="s">
+      <c r="M38" s="103">
+        <v>27</v>
+      </c>
+      <c r="N38" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="108" t="s">
+      <c r="O38" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="108" t="s">
+      <c r="P38" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="109"/>
+      <c r="Q38" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="106"/>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L39" s="67"/>
       <c r="M39" s="66">
         <v>17</v>
       </c>
-      <c r="N39" s="84" t="s">
+      <c r="N39" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="O39" s="84" t="s">
+      <c r="O39" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="84" t="s">
+      <c r="P39" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="84" t="s">
+      <c r="Q39" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="119" t="s">
+      <c r="R39" s="116" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10917,19 +11021,19 @@
       <c r="M40" s="57">
         <v>24</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="77" t="s">
+      <c r="O40" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="P40" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="77" t="s">
+      <c r="P40" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="120" t="s">
+      <c r="R40" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10938,16 +11042,16 @@
       <c r="M41" s="57">
         <v>16</v>
       </c>
-      <c r="N41" s="77" t="s">
+      <c r="N41" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O41" s="77" t="s">
+      <c r="O41" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="77" t="s">
+      <c r="P41" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="77" t="s">
+      <c r="Q41" s="74" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
@@ -10957,16 +11061,16 @@
       <c r="M42" s="57">
         <v>20</v>
       </c>
-      <c r="N42" s="77" t="s">
+      <c r="N42" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="77" t="s">
+      <c r="O42" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="P42" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="77" t="s">
+      <c r="P42" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R42" s="33"/>
@@ -10976,16 +11080,16 @@
       <c r="M43" s="57">
         <v>25</v>
       </c>
-      <c r="N43" s="77" t="s">
+      <c r="N43" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O43" s="77" t="s">
+      <c r="O43" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="77" t="s">
+      <c r="P43" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
@@ -10995,16 +11099,16 @@
       <c r="M44" s="57">
         <v>20</v>
       </c>
-      <c r="N44" s="77" t="s">
+      <c r="N44" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O44" s="77" t="s">
+      <c r="O44" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="P44" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="77" t="s">
+      <c r="P44" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R44" s="33"/>
@@ -11014,16 +11118,16 @@
       <c r="M45" s="57">
         <v>20</v>
       </c>
-      <c r="N45" s="77" t="s">
+      <c r="N45" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O45" s="77" t="s">
+      <c r="O45" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="77" t="s">
+      <c r="P45" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="77" t="s">
+      <c r="Q45" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
@@ -11033,16 +11137,16 @@
       <c r="M46" s="57">
         <v>20</v>
       </c>
-      <c r="N46" s="77" t="s">
+      <c r="N46" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="77" t="s">
+      <c r="O46" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="P46" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="77" t="s">
+      <c r="P46" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
@@ -11052,16 +11156,16 @@
       <c r="M47" s="57">
         <v>22</v>
       </c>
-      <c r="N47" s="77" t="s">
+      <c r="N47" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O47" s="77" t="s">
+      <c r="O47" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="77" t="s">
+      <c r="P47" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="77" t="s">
+      <c r="Q47" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
@@ -11071,38 +11175,38 @@
       <c r="M48" s="57">
         <v>14</v>
       </c>
-      <c r="N48" s="77" t="s">
+      <c r="N48" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="77" t="s">
+      <c r="O48" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="P48" s="77" t="s">
+      <c r="P48" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q48" s="77" t="s">
+      <c r="Q48" s="74" t="s">
         <v>20</v>
       </c>
       <c r="R48" s="33"/>
     </row>
     <row r="49" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L49" s="39"/>
-      <c r="M49" s="58">
-        <v>22</v>
-      </c>
-      <c r="N49" s="104" t="s">
+      <c r="M49" s="99">
+        <v>27</v>
+      </c>
+      <c r="N49" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="O49" s="104" t="s">
+      <c r="O49" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="104" t="s">
+      <c r="P49" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="105"/>
+      <c r="Q49" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
